--- a/table.xlsx
+++ b/table.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:CI14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -416,53 +416,518 @@
         <v>arr2</v>
       </c>
       <c r="E1" t="str">
+        <v>arr2[0][0][0]</v>
+      </c>
+      <c r="F1" t="str">
+        <v>arr2[0][0][1]</v>
+      </c>
+      <c r="G1" t="str">
+        <v>arr2[0][1][0]</v>
+      </c>
+      <c r="H1" t="str">
+        <v>arr2[0][1][1]</v>
+      </c>
+      <c r="I1" t="str">
+        <v>arr2[0][2][0]</v>
+      </c>
+      <c r="J1" t="str">
+        <v>arr2[0][2][1]</v>
+      </c>
+      <c r="K1" t="str">
+        <v>arr2[1][0][0]</v>
+      </c>
+      <c r="L1" t="str">
+        <v>arr2[1][0][1]</v>
+      </c>
+      <c r="M1" t="str">
+        <v>arr2[1][1][0]</v>
+      </c>
+      <c r="N1" t="str">
+        <v>arr2[1][1][1]</v>
+      </c>
+      <c r="O1" t="str">
+        <v>arr2[1][2][0]</v>
+      </c>
+      <c r="P1" t="str">
+        <v>arr2[1][2][1]</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>arr2[2][0][0]</v>
+      </c>
+      <c r="R1" t="str">
+        <v>arr2[2][0][1]</v>
+      </c>
+      <c r="S1" t="str">
+        <v>arr2[2][1][0]</v>
+      </c>
+      <c r="T1" t="str">
+        <v>arr2[2][1][1]</v>
+      </c>
+      <c r="U1" t="str">
+        <v>arr2[2][2][0]</v>
+      </c>
+      <c r="V1" t="str">
+        <v>arr2[2][2][1]</v>
+      </c>
+      <c r="W1" t="str">
+        <v>arr2[3][0][0]</v>
+      </c>
+      <c r="X1" t="str">
+        <v>arr2[3][0][1]</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>arr2[3][1][0]</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>arr2[3][1][1]</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>arr2[3][2][0]</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>arr2[3][2][1]</v>
+      </c>
+      <c r="AC1" t="str">
         <v>s2</v>
       </c>
-      <c r="F1" t="str">
+      <c r="AD1" t="str">
         <v>s3</v>
       </c>
-      <c r="G1" t="str">
+      <c r="AE1" t="str">
+        <v>s5</v>
+      </c>
+      <c r="AF1" t="str">
+        <v>s6</v>
+      </c>
+      <c r="AG1" t="str">
         <v>s4</v>
       </c>
-      <c r="H1" t="str">
+      <c r="AH1" t="str">
+        <v>s4[0]</v>
+      </c>
+      <c r="AI1" t="str">
+        <v>s4[1]</v>
+      </c>
+      <c r="AJ1" t="str">
         <v>arr</v>
       </c>
-      <c r="I1" t="str">
+      <c r="AK1" t="str">
+        <v>arr[0]</v>
+      </c>
+      <c r="AL1" t="str">
+        <v>arr[1]</v>
+      </c>
+      <c r="AM1" t="str">
+        <v>arr[2]</v>
+      </c>
+      <c r="AN1" t="str">
+        <v>arr[3]</v>
+      </c>
+      <c r="AO1" t="str">
+        <v>arr[4]</v>
+      </c>
+      <c r="AP1" t="str">
+        <v>arr[5]</v>
+      </c>
+      <c r="AQ1" t="str">
+        <v>arr[6]</v>
+      </c>
+      <c r="AR1" t="str">
+        <v>arr[7]</v>
+      </c>
+      <c r="AS1" t="str">
+        <v>arr[8]</v>
+      </c>
+      <c r="AT1" t="str">
+        <v>arr[9]</v>
+      </c>
+      <c r="AU1" t="str">
+        <v>arr[10]</v>
+      </c>
+      <c r="AV1" t="str">
         <v>a</v>
+      </c>
+      <c r="AW1" t="str">
+        <v>arr2s</v>
+      </c>
+      <c r="AX1" t="str">
+        <v>arr2s[0][0][0]</v>
+      </c>
+      <c r="AY1" t="str">
+        <v>arr2s[0][0][1]</v>
+      </c>
+      <c r="AZ1" t="str">
+        <v>arr2s[0][1][0]</v>
+      </c>
+      <c r="BA1" t="str">
+        <v>arr2s[0][1][1]</v>
+      </c>
+      <c r="BB1" t="str">
+        <v>arr2s[0][2][0]</v>
+      </c>
+      <c r="BC1" t="str">
+        <v>arr2s[0][2][1]</v>
+      </c>
+      <c r="BD1" t="str">
+        <v>arr2s[1][0][0]</v>
+      </c>
+      <c r="BE1" t="str">
+        <v>arr2s[1][0][1]</v>
+      </c>
+      <c r="BF1" t="str">
+        <v>arr2s[1][1][0]</v>
+      </c>
+      <c r="BG1" t="str">
+        <v>arr2s[1][1][1]</v>
+      </c>
+      <c r="BH1" t="str">
+        <v>arr2s[1][2][0]</v>
+      </c>
+      <c r="BI1" t="str">
+        <v>arr2s[1][2][1]</v>
+      </c>
+      <c r="BJ1" t="str">
+        <v>arr2s[2][0][0]</v>
+      </c>
+      <c r="BK1" t="str">
+        <v>arr2s[2][0][1]</v>
+      </c>
+      <c r="BL1" t="str">
+        <v>arr2s[2][1][0]</v>
+      </c>
+      <c r="BM1" t="str">
+        <v>arr2s[2][1][1]</v>
+      </c>
+      <c r="BN1" t="str">
+        <v>arr2s[2][2][0]</v>
+      </c>
+      <c r="BO1" t="str">
+        <v>arr2s[2][2][1]</v>
+      </c>
+      <c r="BP1" t="str">
+        <v>arr2s[3][0][0]</v>
+      </c>
+      <c r="BQ1" t="str">
+        <v>arr2s[3][0][1]</v>
+      </c>
+      <c r="BR1" t="str">
+        <v>arr2s[3][1][0]</v>
+      </c>
+      <c r="BS1" t="str">
+        <v>arr2s[3][1][1]</v>
+      </c>
+      <c r="BT1" t="str">
+        <v>arr2s[3][2][0]</v>
+      </c>
+      <c r="BU1" t="str">
+        <v>arr2s[3][2][1]</v>
+      </c>
+      <c r="BV1" t="str">
+        <v>dd</v>
+      </c>
+      <c r="BW1" t="str">
+        <v>myg</v>
+      </c>
+      <c r="BX1" t="str">
+        <v>ssaa</v>
+      </c>
+      <c r="BY1" t="str">
+        <v>ssaa[0]</v>
+      </c>
+      <c r="BZ1" t="str">
+        <v>ssaa[1]</v>
+      </c>
+      <c r="CA1" t="str">
+        <v>ssaa[2]</v>
+      </c>
+      <c r="CB1" t="str">
+        <v>ssaa[3]</v>
+      </c>
+      <c r="CC1" t="str">
+        <v>ssaa[4]</v>
+      </c>
+      <c r="CD1" t="str">
+        <v>ssaa[5]</v>
+      </c>
+      <c r="CE1" t="str">
+        <v>ssaa[6]</v>
+      </c>
+      <c r="CF1" t="str">
+        <v>ssaa[7]</v>
+      </c>
+      <c r="CG1" t="str">
+        <v>ssaa[8]</v>
+      </c>
+      <c r="CH1" t="str">
+        <v>ssaa[9]</v>
+      </c>
+      <c r="CI1" t="str">
+        <v>ssaa[10]</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="str">
         <v>main</v>
       </c>
-      <c r="C2" t="str">
-        <v>1</v>
-      </c>
       <c r="D2" t="str">
-        <v>{{{0, 0}, {0, 0}, {-970982448, 177}}, {{55581248, 32759}, {55581072,       32759}, {55580250, 32759}}, {{589698224, 665}, {0, 0}, {55574528,       32759}}, {{0, 1}, {-970982400, 177}, {55581288, 32759}}}</v>
+        <v>{{{0, 0}, {0, 0}, {-1398802736, 88}}, {{-1379198384, 32759}, {      -1379198560, 32759}, {-1379199398, 32759}}, {{-1903815504, 590}, {0,       0}, {-1379205120, 32759}}, {{0, 1}, {-1398802688, 88}, {-1379198344,       32759}}}</v>
       </c>
       <c r="E2" t="str">
+        <v>0</v>
+      </c>
+      <c r="F2" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="G2" t="str">
+        <v>0</v>
+      </c>
+      <c r="H2" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="I2" t="str">
+        <v>-1398802736</v>
+      </c>
+      <c r="J2" t="str">
+        <v xml:space="preserve"> 88</v>
+      </c>
+      <c r="K2" t="str">
+        <v>-1379198384</v>
+      </c>
+      <c r="L2" t="str">
+        <v xml:space="preserve"> 32759</v>
+      </c>
+      <c r="M2" t="str">
+        <v xml:space="preserve">      -1379198560</v>
+      </c>
+      <c r="N2" t="str">
+        <v xml:space="preserve"> 32759</v>
+      </c>
+      <c r="O2" t="str">
+        <v>-1379199398</v>
+      </c>
+      <c r="P2" t="str">
+        <v xml:space="preserve"> 32759</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>-1903815504</v>
+      </c>
+      <c r="R2" t="str">
+        <v xml:space="preserve"> 590</v>
+      </c>
+      <c r="S2" t="str">
+        <v>0</v>
+      </c>
+      <c r="T2" t="str">
+        <v xml:space="preserve">       0</v>
+      </c>
+      <c r="U2" t="str">
+        <v>-1379205120</v>
+      </c>
+      <c r="V2" t="str">
+        <v xml:space="preserve"> 32759</v>
+      </c>
+      <c r="W2" t="str">
+        <v>0</v>
+      </c>
+      <c r="X2" t="str">
+        <v xml:space="preserve"> 1</v>
+      </c>
+      <c r="Y2" t="str">
+        <v>-1398802688</v>
+      </c>
+      <c r="Z2" t="str">
+        <v xml:space="preserve"> 88</v>
+      </c>
+      <c r="AA2" t="str">
+        <v>-1379198344</v>
+      </c>
+      <c r="AB2" t="str">
+        <v xml:space="preserve">       32759</v>
+      </c>
+      <c r="AC2" t="str">
         <v>"\000\000\000\000\000\000"</v>
       </c>
-      <c r="F2" t="str">
+      <c r="AD2" t="str">
         <v>"\000\000\000"</v>
       </c>
-      <c r="G2" t="str">
+      <c r="AE2" t="str">
+        <v>0 '\000'</v>
+      </c>
+      <c r="AF2" t="str">
+        <v>"\000"</v>
+      </c>
+      <c r="AG2" t="str">
         <v>{"\000", "\000"}</v>
       </c>
-      <c r="H2" t="str">
-        <v>{55581072, 32759, 16, 0, 0, 0, 0, 0, 0, 0, 55580333}</v>
-      </c>
-      <c r="I2" t="str">
-        <v>1</v>
+      <c r="AH2" t="str">
+        <v>"\000"</v>
+      </c>
+      <c r="AI2" t="str">
+        <v xml:space="preserve"> "\000"</v>
+      </c>
+      <c r="AJ2" t="str">
+        <v>{-1379198560, 32759, 16, 0, 0, 0, 0, 0, 0, 0, -1379199315}</v>
+      </c>
+      <c r="AK2" t="str">
+        <v>-1379198560</v>
+      </c>
+      <c r="AL2" t="str">
+        <v xml:space="preserve"> 32759</v>
+      </c>
+      <c r="AM2" t="str">
+        <v xml:space="preserve"> 16</v>
+      </c>
+      <c r="AN2" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AO2" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AP2" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AQ2" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AR2" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AS2" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AT2" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AU2" t="str">
+        <v xml:space="preserve"> -1379199315</v>
+      </c>
+      <c r="AV2" t="str">
+        <v xml:space="preserve">0(gdb) </v>
+      </c>
+      <c r="AW2" t="str">
+        <v xml:space="preserve">{{{0, 0}, {0, 0}, {0, 0}}, {{0, 0}, {0, 0}, {0, 0}}, {{0, 0}, {0, 0}, {      0, 0}}, {{0, 0}, {0, 0}, {0, 0}}}(gdb) </v>
+      </c>
+      <c r="AX2" t="str">
+        <v>0</v>
+      </c>
+      <c r="AY2" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AZ2" t="str">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BB2" t="str">
+        <v>0</v>
+      </c>
+      <c r="BC2" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BD2" t="str">
+        <v>0</v>
+      </c>
+      <c r="BE2" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BF2" t="str">
+        <v>0</v>
+      </c>
+      <c r="BG2" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BH2" t="str">
+        <v>0</v>
+      </c>
+      <c r="BI2" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BJ2" t="str">
+        <v>0</v>
+      </c>
+      <c r="BK2" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BL2" t="str">
+        <v>0</v>
+      </c>
+      <c r="BM2" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BN2" t="str">
+        <v xml:space="preserve">      0</v>
+      </c>
+      <c r="BO2" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BP2" t="str">
+        <v>0</v>
+      </c>
+      <c r="BQ2" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BR2" t="str">
+        <v>0</v>
+      </c>
+      <c r="BS2" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BT2" t="str">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BV2" t="str">
+        <v xml:space="preserve">0(gdb) </v>
+      </c>
+      <c r="BW2" t="str">
+        <v xml:space="preserve">7(gdb) </v>
+      </c>
+      <c r="BX2" t="str">
+        <v>{0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10}</v>
+      </c>
+      <c r="BY2" t="str">
+        <v>0</v>
+      </c>
+      <c r="BZ2" t="str">
+        <v xml:space="preserve"> 1</v>
+      </c>
+      <c r="CA2" t="str">
+        <v xml:space="preserve"> 2</v>
+      </c>
+      <c r="CB2" t="str">
+        <v xml:space="preserve"> 3</v>
+      </c>
+      <c r="CC2" t="str">
+        <v xml:space="preserve"> 4</v>
+      </c>
+      <c r="CD2" t="str">
+        <v xml:space="preserve"> 5</v>
+      </c>
+      <c r="CE2" t="str">
+        <v xml:space="preserve"> 6</v>
+      </c>
+      <c r="CF2" t="str">
+        <v xml:space="preserve"> 7</v>
+      </c>
+      <c r="CG2" t="str">
+        <v xml:space="preserve"> 8</v>
+      </c>
+      <c r="CH2" t="str">
+        <v xml:space="preserve"> 9</v>
+      </c>
+      <c r="CI2" t="str">
+        <v xml:space="preserve"> 10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="str">
         <v>main</v>
@@ -471,24 +936,258 @@
         <v>{{{0, 0}, {0, 0}, {0, 0}}, {{0, 0}, {0, 0}, {0, 0}}, {{0, 0}, {0, 0}, {      0, 0}}, {{0, 0}, {0, 0}, {0, 0}}}</v>
       </c>
       <c r="E3" t="str">
+        <v>0</v>
+      </c>
+      <c r="F3" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="G3" t="str">
+        <v>0</v>
+      </c>
+      <c r="H3" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="I3" t="str">
+        <v>0</v>
+      </c>
+      <c r="J3" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="K3" t="str">
+        <v>0</v>
+      </c>
+      <c r="L3" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="M3" t="str">
+        <v>0</v>
+      </c>
+      <c r="N3" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="O3" t="str">
+        <v>0</v>
+      </c>
+      <c r="P3" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="Q3" t="str">
+        <v>0</v>
+      </c>
+      <c r="R3" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="S3" t="str">
+        <v>0</v>
+      </c>
+      <c r="T3" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="U3" t="str">
+        <v xml:space="preserve">      0</v>
+      </c>
+      <c r="V3" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="W3" t="str">
+        <v>0</v>
+      </c>
+      <c r="X3" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="Y3" t="str">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AA3" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AC3" t="str">
         <v>"\000\000\000\000\000\000"</v>
       </c>
-      <c r="F3" t="str">
+      <c r="AD3" t="str">
         <v>"\000\000\000"</v>
       </c>
-      <c r="G3" t="str">
+      <c r="AE3" t="str">
+        <v>0 '\000'</v>
+      </c>
+      <c r="AF3" t="str">
+        <v>"\000"</v>
+      </c>
+      <c r="AG3" t="str">
         <v>{"\000", "\000"}</v>
       </c>
-      <c r="H3" t="str">
-        <v>{55581072, 32759, 16, 0, 0, 0, 0, 0, 0, 0, 55580333}</v>
-      </c>
-      <c r="I3" t="str">
-        <v>1</v>
+      <c r="AH3" t="str">
+        <v>"\000"</v>
+      </c>
+      <c r="AI3" t="str">
+        <v xml:space="preserve"> "\000"</v>
+      </c>
+      <c r="AJ3" t="str">
+        <v>{-1379198560, 32759, 16, 0, 0, 0, 0, 0, 0, 0, -1379199315}</v>
+      </c>
+      <c r="AK3" t="str">
+        <v>-1379198560</v>
+      </c>
+      <c r="AL3" t="str">
+        <v xml:space="preserve"> 32759</v>
+      </c>
+      <c r="AM3" t="str">
+        <v xml:space="preserve"> 16</v>
+      </c>
+      <c r="AN3" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AO3" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AP3" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AQ3" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AR3" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AS3" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AT3" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AU3" t="str">
+        <v xml:space="preserve"> -1379199315</v>
+      </c>
+      <c r="AV3" t="str">
+        <v xml:space="preserve">0(gdb) </v>
+      </c>
+      <c r="AW3" t="str">
+        <v xml:space="preserve">{{{0, 0}, {0, 0}, {0, 0}}, {{0, 0}, {0, 0}, {0, 0}}, {{0, 0}, {0, 0}, {      0, 0}}, {{0, 0}, {0, 0}, {0, 0}}}(gdb) </v>
+      </c>
+      <c r="AX3" t="str">
+        <v>0</v>
+      </c>
+      <c r="AY3" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AZ3" t="str">
+        <v>0</v>
+      </c>
+      <c r="BA3" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BB3" t="str">
+        <v>0</v>
+      </c>
+      <c r="BC3" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BD3" t="str">
+        <v>0</v>
+      </c>
+      <c r="BE3" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BF3" t="str">
+        <v>0</v>
+      </c>
+      <c r="BG3" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BH3" t="str">
+        <v>0</v>
+      </c>
+      <c r="BI3" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BJ3" t="str">
+        <v>0</v>
+      </c>
+      <c r="BK3" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BL3" t="str">
+        <v>0</v>
+      </c>
+      <c r="BM3" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BN3" t="str">
+        <v xml:space="preserve">      0</v>
+      </c>
+      <c r="BO3" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BP3" t="str">
+        <v>0</v>
+      </c>
+      <c r="BQ3" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BR3" t="str">
+        <v>0</v>
+      </c>
+      <c r="BS3" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BT3" t="str">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BV3" t="str">
+        <v xml:space="preserve">0(gdb) </v>
+      </c>
+      <c r="BW3" t="str">
+        <v xml:space="preserve">7(gdb) </v>
+      </c>
+      <c r="BX3" t="str">
+        <v>{0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10}</v>
+      </c>
+      <c r="BY3" t="str">
+        <v>0</v>
+      </c>
+      <c r="BZ3" t="str">
+        <v xml:space="preserve"> 1</v>
+      </c>
+      <c r="CA3" t="str">
+        <v xml:space="preserve"> 2</v>
+      </c>
+      <c r="CB3" t="str">
+        <v xml:space="preserve"> 3</v>
+      </c>
+      <c r="CC3" t="str">
+        <v xml:space="preserve"> 4</v>
+      </c>
+      <c r="CD3" t="str">
+        <v xml:space="preserve"> 5</v>
+      </c>
+      <c r="CE3" t="str">
+        <v xml:space="preserve"> 6</v>
+      </c>
+      <c r="CF3" t="str">
+        <v xml:space="preserve"> 7</v>
+      </c>
+      <c r="CG3" t="str">
+        <v xml:space="preserve"> 8</v>
+      </c>
+      <c r="CH3" t="str">
+        <v xml:space="preserve"> 9</v>
+      </c>
+      <c r="CI3" t="str">
+        <v xml:space="preserve"> 10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="str">
         <v>main</v>
@@ -497,24 +1196,258 @@
         <v>{{{0, 0}, {0, 0}, {0, 0}}, {{0, 0}, {0, 0}, {0, 0}}, {{0, 0}, {0, 0}, {      0, 0}}, {{0, 0}, {0, 0}, {0, 0}}}</v>
       </c>
       <c r="E4" t="str">
+        <v>0</v>
+      </c>
+      <c r="F4" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="G4" t="str">
+        <v>0</v>
+      </c>
+      <c r="H4" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="I4" t="str">
+        <v>0</v>
+      </c>
+      <c r="J4" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="K4" t="str">
+        <v>0</v>
+      </c>
+      <c r="L4" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="M4" t="str">
+        <v>0</v>
+      </c>
+      <c r="N4" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="O4" t="str">
+        <v>0</v>
+      </c>
+      <c r="P4" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="Q4" t="str">
+        <v>0</v>
+      </c>
+      <c r="R4" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="S4" t="str">
+        <v>0</v>
+      </c>
+      <c r="T4" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="U4" t="str">
+        <v xml:space="preserve">      0</v>
+      </c>
+      <c r="V4" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="W4" t="str">
+        <v>0</v>
+      </c>
+      <c r="X4" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="Y4" t="str">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AA4" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AC4" t="str">
         <v>"123456"</v>
       </c>
-      <c r="F4" t="str">
+      <c r="AD4" t="str">
         <v>"\000\000\000"</v>
       </c>
-      <c r="G4" t="str">
+      <c r="AE4" t="str">
+        <v>0 '\000'</v>
+      </c>
+      <c r="AF4" t="str">
+        <v>"\000"</v>
+      </c>
+      <c r="AG4" t="str">
         <v>{"\000", "\000"}</v>
       </c>
-      <c r="H4" t="str">
-        <v>{55581072, 32759, 16, 0, 0, 0, 0, 0, 0, 0, 55580333}</v>
-      </c>
-      <c r="I4" t="str">
-        <v>1</v>
+      <c r="AH4" t="str">
+        <v>"\000"</v>
+      </c>
+      <c r="AI4" t="str">
+        <v xml:space="preserve"> "\000"</v>
+      </c>
+      <c r="AJ4" t="str">
+        <v>{-1379198560, 32759, 16, 0, 0, 0, 0, 0, 0, 0, -1379199315}</v>
+      </c>
+      <c r="AK4" t="str">
+        <v>-1379198560</v>
+      </c>
+      <c r="AL4" t="str">
+        <v xml:space="preserve"> 32759</v>
+      </c>
+      <c r="AM4" t="str">
+        <v xml:space="preserve"> 16</v>
+      </c>
+      <c r="AN4" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AO4" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AP4" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AQ4" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AR4" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AS4" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AT4" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AU4" t="str">
+        <v xml:space="preserve"> -1379199315</v>
+      </c>
+      <c r="AV4" t="str">
+        <v xml:space="preserve">0(gdb) </v>
+      </c>
+      <c r="AW4" t="str">
+        <v xml:space="preserve">{{{0, 0}, {0, 0}, {0, 0}}, {{0, 0}, {0, 0}, {0, 0}}, {{0, 0}, {0, 0}, {      0, 0}}, {{0, 0}, {0, 0}, {0, 0}}}(gdb) </v>
+      </c>
+      <c r="AX4" t="str">
+        <v>0</v>
+      </c>
+      <c r="AY4" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AZ4" t="str">
+        <v>0</v>
+      </c>
+      <c r="BA4" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BB4" t="str">
+        <v>0</v>
+      </c>
+      <c r="BC4" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BD4" t="str">
+        <v>0</v>
+      </c>
+      <c r="BE4" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BF4" t="str">
+        <v>0</v>
+      </c>
+      <c r="BG4" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BH4" t="str">
+        <v>0</v>
+      </c>
+      <c r="BI4" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BJ4" t="str">
+        <v>0</v>
+      </c>
+      <c r="BK4" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BL4" t="str">
+        <v>0</v>
+      </c>
+      <c r="BM4" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BN4" t="str">
+        <v xml:space="preserve">      0</v>
+      </c>
+      <c r="BO4" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BP4" t="str">
+        <v>0</v>
+      </c>
+      <c r="BQ4" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BR4" t="str">
+        <v>0</v>
+      </c>
+      <c r="BS4" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BT4" t="str">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BV4" t="str">
+        <v xml:space="preserve">0(gdb) </v>
+      </c>
+      <c r="BW4" t="str">
+        <v xml:space="preserve">7(gdb) </v>
+      </c>
+      <c r="BX4" t="str">
+        <v>{0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10}</v>
+      </c>
+      <c r="BY4" t="str">
+        <v>0</v>
+      </c>
+      <c r="BZ4" t="str">
+        <v xml:space="preserve"> 1</v>
+      </c>
+      <c r="CA4" t="str">
+        <v xml:space="preserve"> 2</v>
+      </c>
+      <c r="CB4" t="str">
+        <v xml:space="preserve"> 3</v>
+      </c>
+      <c r="CC4" t="str">
+        <v xml:space="preserve"> 4</v>
+      </c>
+      <c r="CD4" t="str">
+        <v xml:space="preserve"> 5</v>
+      </c>
+      <c r="CE4" t="str">
+        <v xml:space="preserve"> 6</v>
+      </c>
+      <c r="CF4" t="str">
+        <v xml:space="preserve"> 7</v>
+      </c>
+      <c r="CG4" t="str">
+        <v xml:space="preserve"> 8</v>
+      </c>
+      <c r="CH4" t="str">
+        <v xml:space="preserve"> 9</v>
+      </c>
+      <c r="CI4" t="str">
+        <v xml:space="preserve"> 10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="str">
         <v>main</v>
@@ -523,24 +1456,258 @@
         <v>{{{0, 0}, {0, 0}, {0, 0}}, {{0, 0}, {0, 0}, {0, 0}}, {{0, 0}, {0, 0}, {      0, 0}}, {{0, 0}, {0, 0}, {0, 0}}}</v>
       </c>
       <c r="E5" t="str">
+        <v>0</v>
+      </c>
+      <c r="F5" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="G5" t="str">
+        <v>0</v>
+      </c>
+      <c r="H5" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="I5" t="str">
+        <v>0</v>
+      </c>
+      <c r="J5" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="K5" t="str">
+        <v>0</v>
+      </c>
+      <c r="L5" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="M5" t="str">
+        <v>0</v>
+      </c>
+      <c r="N5" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="O5" t="str">
+        <v>0</v>
+      </c>
+      <c r="P5" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="Q5" t="str">
+        <v>0</v>
+      </c>
+      <c r="R5" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="S5" t="str">
+        <v>0</v>
+      </c>
+      <c r="T5" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="U5" t="str">
+        <v xml:space="preserve">      0</v>
+      </c>
+      <c r="V5" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="W5" t="str">
+        <v>0</v>
+      </c>
+      <c r="X5" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="Y5" t="str">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AA5" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AC5" t="str">
         <v>"123456"</v>
       </c>
-      <c r="F5" t="str">
+      <c r="AD5" t="str">
         <v>"{=}"</v>
       </c>
-      <c r="G5" t="str">
+      <c r="AE5" t="str">
+        <v>0 '\000'</v>
+      </c>
+      <c r="AF5" t="str">
+        <v>"\000"</v>
+      </c>
+      <c r="AG5" t="str">
         <v>{"\000", "\000"}</v>
       </c>
-      <c r="H5" t="str">
-        <v>{55581072, 32759, 16, 0, 0, 0, 0, 0, 0, 0, 55580333}</v>
-      </c>
-      <c r="I5" t="str">
-        <v>1</v>
+      <c r="AH5" t="str">
+        <v>"\000"</v>
+      </c>
+      <c r="AI5" t="str">
+        <v xml:space="preserve"> "\000"</v>
+      </c>
+      <c r="AJ5" t="str">
+        <v>{-1379198560, 32759, 16, 0, 0, 0, 0, 0, 0, 0, -1379199315}</v>
+      </c>
+      <c r="AK5" t="str">
+        <v>-1379198560</v>
+      </c>
+      <c r="AL5" t="str">
+        <v xml:space="preserve"> 32759</v>
+      </c>
+      <c r="AM5" t="str">
+        <v xml:space="preserve"> 16</v>
+      </c>
+      <c r="AN5" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AO5" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AP5" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AQ5" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AR5" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AS5" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AT5" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AU5" t="str">
+        <v xml:space="preserve"> -1379199315</v>
+      </c>
+      <c r="AV5" t="str">
+        <v xml:space="preserve">0(gdb) </v>
+      </c>
+      <c r="AW5" t="str">
+        <v xml:space="preserve">{{{0, 0}, {0, 0}, {0, 0}}, {{0, 0}, {0, 0}, {0, 0}}, {{0, 0}, {0, 0}, {      0, 0}}, {{0, 0}, {0, 0}, {0, 0}}}(gdb) </v>
+      </c>
+      <c r="AX5" t="str">
+        <v>0</v>
+      </c>
+      <c r="AY5" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AZ5" t="str">
+        <v>0</v>
+      </c>
+      <c r="BA5" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BB5" t="str">
+        <v>0</v>
+      </c>
+      <c r="BC5" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BD5" t="str">
+        <v>0</v>
+      </c>
+      <c r="BE5" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BF5" t="str">
+        <v>0</v>
+      </c>
+      <c r="BG5" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BH5" t="str">
+        <v>0</v>
+      </c>
+      <c r="BI5" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BJ5" t="str">
+        <v>0</v>
+      </c>
+      <c r="BK5" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BL5" t="str">
+        <v>0</v>
+      </c>
+      <c r="BM5" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BN5" t="str">
+        <v xml:space="preserve">      0</v>
+      </c>
+      <c r="BO5" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BP5" t="str">
+        <v>0</v>
+      </c>
+      <c r="BQ5" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BR5" t="str">
+        <v>0</v>
+      </c>
+      <c r="BS5" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BT5" t="str">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BV5" t="str">
+        <v xml:space="preserve">0(gdb) </v>
+      </c>
+      <c r="BW5" t="str">
+        <v xml:space="preserve">7(gdb) </v>
+      </c>
+      <c r="BX5" t="str">
+        <v>{0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10}</v>
+      </c>
+      <c r="BY5" t="str">
+        <v>0</v>
+      </c>
+      <c r="BZ5" t="str">
+        <v xml:space="preserve"> 1</v>
+      </c>
+      <c r="CA5" t="str">
+        <v xml:space="preserve"> 2</v>
+      </c>
+      <c r="CB5" t="str">
+        <v xml:space="preserve"> 3</v>
+      </c>
+      <c r="CC5" t="str">
+        <v xml:space="preserve"> 4</v>
+      </c>
+      <c r="CD5" t="str">
+        <v xml:space="preserve"> 5</v>
+      </c>
+      <c r="CE5" t="str">
+        <v xml:space="preserve"> 6</v>
+      </c>
+      <c r="CF5" t="str">
+        <v xml:space="preserve"> 7</v>
+      </c>
+      <c r="CG5" t="str">
+        <v xml:space="preserve"> 8</v>
+      </c>
+      <c r="CH5" t="str">
+        <v xml:space="preserve"> 9</v>
+      </c>
+      <c r="CI5" t="str">
+        <v xml:space="preserve"> 10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="str">
         <v>main</v>
@@ -549,24 +1716,258 @@
         <v>{{{0, 0}, {0, 0}, {0, 0}}, {{0, 0}, {0, 0}, {0, 0}}, {{0, 0}, {0, 0}, {      0, 0}}, {{0, 0}, {0, 0}, {0, 0}}}</v>
       </c>
       <c r="E6" t="str">
+        <v>0</v>
+      </c>
+      <c r="F6" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="G6" t="str">
+        <v>0</v>
+      </c>
+      <c r="H6" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="I6" t="str">
+        <v>0</v>
+      </c>
+      <c r="J6" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="K6" t="str">
+        <v>0</v>
+      </c>
+      <c r="L6" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="M6" t="str">
+        <v>0</v>
+      </c>
+      <c r="N6" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="O6" t="str">
+        <v>0</v>
+      </c>
+      <c r="P6" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="Q6" t="str">
+        <v>0</v>
+      </c>
+      <c r="R6" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="S6" t="str">
+        <v>0</v>
+      </c>
+      <c r="T6" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="U6" t="str">
+        <v xml:space="preserve">      0</v>
+      </c>
+      <c r="V6" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="W6" t="str">
+        <v>0</v>
+      </c>
+      <c r="X6" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="Y6" t="str">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AA6" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AC6" t="str">
         <v>"123456"</v>
       </c>
-      <c r="F6" t="str">
+      <c r="AD6" t="str">
         <v>"{=}"</v>
       </c>
-      <c r="G6" t="str">
-        <v>{"ds", "aa"}</v>
-      </c>
-      <c r="H6" t="str">
-        <v>{55581072, 32759, 16, 0, 0, 0, 0, 0, 0, 0, 55580333}</v>
-      </c>
-      <c r="I6" t="str">
-        <v>1</v>
+      <c r="AE6" t="str">
+        <v>34 '"'</v>
+      </c>
+      <c r="AF6" t="str">
+        <v>"\000"</v>
+      </c>
+      <c r="AG6" t="str">
+        <v>{"\000", "\000"}</v>
+      </c>
+      <c r="AH6" t="str">
+        <v>"\000"</v>
+      </c>
+      <c r="AI6" t="str">
+        <v xml:space="preserve"> "\000"</v>
+      </c>
+      <c r="AJ6" t="str">
+        <v>{-1379198560, 32759, 16, 0, 0, 0, 0, 0, 0, 0, -1379199315}</v>
+      </c>
+      <c r="AK6" t="str">
+        <v>-1379198560</v>
+      </c>
+      <c r="AL6" t="str">
+        <v xml:space="preserve"> 32759</v>
+      </c>
+      <c r="AM6" t="str">
+        <v xml:space="preserve"> 16</v>
+      </c>
+      <c r="AN6" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AO6" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AP6" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AQ6" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AR6" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AS6" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AT6" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AU6" t="str">
+        <v xml:space="preserve"> -1379199315</v>
+      </c>
+      <c r="AV6" t="str">
+        <v xml:space="preserve">0(gdb) </v>
+      </c>
+      <c r="AW6" t="str">
+        <v xml:space="preserve">{{{0, 0}, {0, 0}, {0, 0}}, {{0, 0}, {0, 0}, {0, 0}}, {{0, 0}, {0, 0}, {      0, 0}}, {{0, 0}, {0, 0}, {0, 0}}}(gdb) </v>
+      </c>
+      <c r="AX6" t="str">
+        <v>0</v>
+      </c>
+      <c r="AY6" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AZ6" t="str">
+        <v>0</v>
+      </c>
+      <c r="BA6" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BB6" t="str">
+        <v>0</v>
+      </c>
+      <c r="BC6" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BD6" t="str">
+        <v>0</v>
+      </c>
+      <c r="BE6" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BF6" t="str">
+        <v>0</v>
+      </c>
+      <c r="BG6" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BH6" t="str">
+        <v>0</v>
+      </c>
+      <c r="BI6" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BJ6" t="str">
+        <v>0</v>
+      </c>
+      <c r="BK6" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BL6" t="str">
+        <v>0</v>
+      </c>
+      <c r="BM6" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BN6" t="str">
+        <v xml:space="preserve">      0</v>
+      </c>
+      <c r="BO6" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BP6" t="str">
+        <v>0</v>
+      </c>
+      <c r="BQ6" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BR6" t="str">
+        <v>0</v>
+      </c>
+      <c r="BS6" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BT6" t="str">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BV6" t="str">
+        <v xml:space="preserve">0(gdb) </v>
+      </c>
+      <c r="BW6" t="str">
+        <v xml:space="preserve">7(gdb) </v>
+      </c>
+      <c r="BX6" t="str">
+        <v>{0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10}</v>
+      </c>
+      <c r="BY6" t="str">
+        <v>0</v>
+      </c>
+      <c r="BZ6" t="str">
+        <v xml:space="preserve"> 1</v>
+      </c>
+      <c r="CA6" t="str">
+        <v xml:space="preserve"> 2</v>
+      </c>
+      <c r="CB6" t="str">
+        <v xml:space="preserve"> 3</v>
+      </c>
+      <c r="CC6" t="str">
+        <v xml:space="preserve"> 4</v>
+      </c>
+      <c r="CD6" t="str">
+        <v xml:space="preserve"> 5</v>
+      </c>
+      <c r="CE6" t="str">
+        <v xml:space="preserve"> 6</v>
+      </c>
+      <c r="CF6" t="str">
+        <v xml:space="preserve"> 7</v>
+      </c>
+      <c r="CG6" t="str">
+        <v xml:space="preserve"> 8</v>
+      </c>
+      <c r="CH6" t="str">
+        <v xml:space="preserve"> 9</v>
+      </c>
+      <c r="CI6" t="str">
+        <v xml:space="preserve"> 10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" t="str">
         <v>main</v>
@@ -575,163 +1976,2087 @@
         <v>{{{0, 0}, {0, 0}, {0, 0}}, {{0, 0}, {0, 0}, {0, 0}}, {{0, 0}, {0, 0}, {      0, 0}}, {{0, 0}, {0, 0}, {0, 0}}}</v>
       </c>
       <c r="E7" t="str">
+        <v>0</v>
+      </c>
+      <c r="F7" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="G7" t="str">
+        <v>0</v>
+      </c>
+      <c r="H7" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="I7" t="str">
+        <v>0</v>
+      </c>
+      <c r="J7" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="K7" t="str">
+        <v>0</v>
+      </c>
+      <c r="L7" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="M7" t="str">
+        <v>0</v>
+      </c>
+      <c r="N7" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="O7" t="str">
+        <v>0</v>
+      </c>
+      <c r="P7" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="Q7" t="str">
+        <v>0</v>
+      </c>
+      <c r="R7" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="S7" t="str">
+        <v>0</v>
+      </c>
+      <c r="T7" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="U7" t="str">
+        <v xml:space="preserve">      0</v>
+      </c>
+      <c r="V7" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="W7" t="str">
+        <v>0</v>
+      </c>
+      <c r="X7" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="Y7" t="str">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AA7" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AC7" t="str">
         <v>"123456"</v>
       </c>
-      <c r="F7" t="str">
+      <c r="AD7" t="str">
         <v>"{=}"</v>
       </c>
-      <c r="G7" t="str">
-        <v>{"ds", "aa"}</v>
-      </c>
-      <c r="H7" t="str">
+      <c r="AE7" t="str">
+        <v>34 '"'</v>
+      </c>
+      <c r="AF7" t="str">
+        <v>"\""</v>
+      </c>
+      <c r="AG7" t="str">
+        <v>{"\000", "\000"}</v>
+      </c>
+      <c r="AH7" t="str">
+        <v>"\000"</v>
+      </c>
+      <c r="AI7" t="str">
+        <v xml:space="preserve"> "\000"</v>
+      </c>
+      <c r="AJ7" t="str">
+        <v>{-1379198560, 32759, 16, 0, 0, 0, 0, 0, 0, 0, -1379199315}</v>
+      </c>
+      <c r="AK7" t="str">
+        <v>-1379198560</v>
+      </c>
+      <c r="AL7" t="str">
+        <v xml:space="preserve"> 32759</v>
+      </c>
+      <c r="AM7" t="str">
+        <v xml:space="preserve"> 16</v>
+      </c>
+      <c r="AN7" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AO7" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AP7" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AQ7" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AR7" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AS7" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AT7" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AU7" t="str">
+        <v xml:space="preserve"> -1379199315</v>
+      </c>
+      <c r="AV7" t="str">
+        <v xml:space="preserve">0(gdb) </v>
+      </c>
+      <c r="AW7" t="str">
+        <v xml:space="preserve">{{{0, 0}, {0, 0}, {0, 0}}, {{0, 0}, {0, 0}, {0, 0}}, {{0, 0}, {0, 0}, {      0, 0}}, {{0, 0}, {0, 0}, {0, 0}}}(gdb) </v>
+      </c>
+      <c r="AX7" t="str">
+        <v>0</v>
+      </c>
+      <c r="AY7" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AZ7" t="str">
+        <v>0</v>
+      </c>
+      <c r="BA7" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BB7" t="str">
+        <v>0</v>
+      </c>
+      <c r="BC7" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BD7" t="str">
+        <v>0</v>
+      </c>
+      <c r="BE7" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BF7" t="str">
+        <v>0</v>
+      </c>
+      <c r="BG7" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BH7" t="str">
+        <v>0</v>
+      </c>
+      <c r="BI7" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BJ7" t="str">
+        <v>0</v>
+      </c>
+      <c r="BK7" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BL7" t="str">
+        <v>0</v>
+      </c>
+      <c r="BM7" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BN7" t="str">
+        <v xml:space="preserve">      0</v>
+      </c>
+      <c r="BO7" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BP7" t="str">
+        <v>0</v>
+      </c>
+      <c r="BQ7" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BR7" t="str">
+        <v>0</v>
+      </c>
+      <c r="BS7" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BT7" t="str">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BV7" t="str">
+        <v xml:space="preserve">0(gdb) </v>
+      </c>
+      <c r="BW7" t="str">
+        <v xml:space="preserve">7(gdb) </v>
+      </c>
+      <c r="BX7" t="str">
         <v>{0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10}</v>
       </c>
-      <c r="I7" t="str">
-        <v>1</v>
+      <c r="BY7" t="str">
+        <v>0</v>
+      </c>
+      <c r="BZ7" t="str">
+        <v xml:space="preserve"> 1</v>
+      </c>
+      <c r="CA7" t="str">
+        <v xml:space="preserve"> 2</v>
+      </c>
+      <c r="CB7" t="str">
+        <v xml:space="preserve"> 3</v>
+      </c>
+      <c r="CC7" t="str">
+        <v xml:space="preserve"> 4</v>
+      </c>
+      <c r="CD7" t="str">
+        <v xml:space="preserve"> 5</v>
+      </c>
+      <c r="CE7" t="str">
+        <v xml:space="preserve"> 6</v>
+      </c>
+      <c r="CF7" t="str">
+        <v xml:space="preserve"> 7</v>
+      </c>
+      <c r="CG7" t="str">
+        <v xml:space="preserve"> 8</v>
+      </c>
+      <c r="CH7" t="str">
+        <v xml:space="preserve"> 9</v>
+      </c>
+      <c r="CI7" t="str">
+        <v xml:space="preserve"> 10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="str">
         <v>main</v>
       </c>
-      <c r="C8" t="str">
-        <v>27</v>
-      </c>
       <c r="D8" t="str">
         <v>{{{0, 0}, {0, 0}, {0, 0}}, {{0, 0}, {0, 0}, {0, 0}}, {{0, 0}, {0, 0}, {      0, 0}}, {{0, 0}, {0, 0}, {0, 0}}}</v>
       </c>
       <c r="E8" t="str">
+        <v>0</v>
+      </c>
+      <c r="F8" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="G8" t="str">
+        <v>0</v>
+      </c>
+      <c r="H8" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="I8" t="str">
+        <v>0</v>
+      </c>
+      <c r="J8" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="K8" t="str">
+        <v>0</v>
+      </c>
+      <c r="L8" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="M8" t="str">
+        <v>0</v>
+      </c>
+      <c r="N8" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="O8" t="str">
+        <v>0</v>
+      </c>
+      <c r="P8" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="Q8" t="str">
+        <v>0</v>
+      </c>
+      <c r="R8" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="S8" t="str">
+        <v>0</v>
+      </c>
+      <c r="T8" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="U8" t="str">
+        <v xml:space="preserve">      0</v>
+      </c>
+      <c r="V8" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="W8" t="str">
+        <v>0</v>
+      </c>
+      <c r="X8" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="Y8" t="str">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AA8" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AC8" t="str">
         <v>"123456"</v>
       </c>
-      <c r="F8" t="str">
+      <c r="AD8" t="str">
         <v>"{=}"</v>
       </c>
-      <c r="G8" t="str">
+      <c r="AE8" t="str">
+        <v>34 '"'</v>
+      </c>
+      <c r="AF8" t="str">
+        <v>"\""</v>
+      </c>
+      <c r="AG8" t="str">
         <v>{"ds", "aa"}</v>
       </c>
-      <c r="H8" t="str">
+      <c r="AH8" t="str">
+        <v>"ds"</v>
+      </c>
+      <c r="AI8" t="str">
+        <v xml:space="preserve"> "aa"</v>
+      </c>
+      <c r="AJ8" t="str">
+        <v>{-1379198560, 32759, 16, 0, 0, 0, 0, 0, 0, 0, -1379199315}</v>
+      </c>
+      <c r="AK8" t="str">
+        <v>-1379198560</v>
+      </c>
+      <c r="AL8" t="str">
+        <v xml:space="preserve"> 32759</v>
+      </c>
+      <c r="AM8" t="str">
+        <v xml:space="preserve"> 16</v>
+      </c>
+      <c r="AN8" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AO8" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AP8" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AQ8" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AR8" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AS8" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AT8" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AU8" t="str">
+        <v xml:space="preserve"> -1379199315</v>
+      </c>
+      <c r="AV8" t="str">
+        <v xml:space="preserve">0(gdb) </v>
+      </c>
+      <c r="AW8" t="str">
+        <v xml:space="preserve">{{{0, 0}, {0, 0}, {0, 0}}, {{0, 0}, {0, 0}, {0, 0}}, {{0, 0}, {0, 0}, {      0, 0}}, {{0, 0}, {0, 0}, {0, 0}}}(gdb) </v>
+      </c>
+      <c r="AX8" t="str">
+        <v>0</v>
+      </c>
+      <c r="AY8" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AZ8" t="str">
+        <v>0</v>
+      </c>
+      <c r="BA8" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BB8" t="str">
+        <v>0</v>
+      </c>
+      <c r="BC8" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BD8" t="str">
+        <v>0</v>
+      </c>
+      <c r="BE8" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BF8" t="str">
+        <v>0</v>
+      </c>
+      <c r="BG8" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BH8" t="str">
+        <v>0</v>
+      </c>
+      <c r="BI8" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BJ8" t="str">
+        <v>0</v>
+      </c>
+      <c r="BK8" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BL8" t="str">
+        <v>0</v>
+      </c>
+      <c r="BM8" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BN8" t="str">
+        <v xml:space="preserve">      0</v>
+      </c>
+      <c r="BO8" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BP8" t="str">
+        <v>0</v>
+      </c>
+      <c r="BQ8" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BR8" t="str">
+        <v>0</v>
+      </c>
+      <c r="BS8" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BT8" t="str">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BV8" t="str">
+        <v xml:space="preserve">0(gdb) </v>
+      </c>
+      <c r="BW8" t="str">
+        <v xml:space="preserve">7(gdb) </v>
+      </c>
+      <c r="BX8" t="str">
         <v>{0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10}</v>
       </c>
-      <c r="I8" t="str">
-        <v>27</v>
+      <c r="BY8" t="str">
+        <v>0</v>
+      </c>
+      <c r="BZ8" t="str">
+        <v xml:space="preserve"> 1</v>
+      </c>
+      <c r="CA8" t="str">
+        <v xml:space="preserve"> 2</v>
+      </c>
+      <c r="CB8" t="str">
+        <v xml:space="preserve"> 3</v>
+      </c>
+      <c r="CC8" t="str">
+        <v xml:space="preserve"> 4</v>
+      </c>
+      <c r="CD8" t="str">
+        <v xml:space="preserve"> 5</v>
+      </c>
+      <c r="CE8" t="str">
+        <v xml:space="preserve"> 6</v>
+      </c>
+      <c r="CF8" t="str">
+        <v xml:space="preserve"> 7</v>
+      </c>
+      <c r="CG8" t="str">
+        <v xml:space="preserve"> 8</v>
+      </c>
+      <c r="CH8" t="str">
+        <v xml:space="preserve"> 9</v>
+      </c>
+      <c r="CI8" t="str">
+        <v xml:space="preserve"> 10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="str">
         <v>main</v>
       </c>
-      <c r="C9" t="str">
-        <v>28</v>
-      </c>
       <c r="D9" t="str">
         <v>{{{0, 0}, {0, 0}, {0, 0}}, {{0, 0}, {0, 0}, {0, 0}}, {{0, 0}, {0, 0}, {      0, 0}}, {{0, 0}, {0, 0}, {0, 0}}}</v>
       </c>
       <c r="E9" t="str">
+        <v>0</v>
+      </c>
+      <c r="F9" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="G9" t="str">
+        <v>0</v>
+      </c>
+      <c r="H9" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="I9" t="str">
+        <v>0</v>
+      </c>
+      <c r="J9" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="K9" t="str">
+        <v>0</v>
+      </c>
+      <c r="L9" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="M9" t="str">
+        <v>0</v>
+      </c>
+      <c r="N9" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="O9" t="str">
+        <v>0</v>
+      </c>
+      <c r="P9" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="Q9" t="str">
+        <v>0</v>
+      </c>
+      <c r="R9" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="S9" t="str">
+        <v>0</v>
+      </c>
+      <c r="T9" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="U9" t="str">
+        <v xml:space="preserve">      0</v>
+      </c>
+      <c r="V9" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="W9" t="str">
+        <v>0</v>
+      </c>
+      <c r="X9" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="Y9" t="str">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AA9" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AC9" t="str">
         <v>"123456"</v>
       </c>
-      <c r="F9" t="str">
+      <c r="AD9" t="str">
         <v>"{=}"</v>
       </c>
-      <c r="G9" t="str">
+      <c r="AE9" t="str">
+        <v>34 '"'</v>
+      </c>
+      <c r="AF9" t="str">
+        <v>"\""</v>
+      </c>
+      <c r="AG9" t="str">
         <v>{"ds", "aa"}</v>
       </c>
-      <c r="H9" t="str">
+      <c r="AH9" t="str">
+        <v>"ds"</v>
+      </c>
+      <c r="AI9" t="str">
+        <v xml:space="preserve"> "aa"</v>
+      </c>
+      <c r="AJ9" t="str">
         <v>{0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10}</v>
       </c>
-      <c r="I9" t="str">
-        <v>27</v>
+      <c r="AK9" t="str">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="str">
+        <v xml:space="preserve"> 1</v>
+      </c>
+      <c r="AM9" t="str">
+        <v xml:space="preserve"> 2</v>
+      </c>
+      <c r="AN9" t="str">
+        <v xml:space="preserve"> 3</v>
+      </c>
+      <c r="AO9" t="str">
+        <v xml:space="preserve"> 4</v>
+      </c>
+      <c r="AP9" t="str">
+        <v xml:space="preserve"> 5</v>
+      </c>
+      <c r="AQ9" t="str">
+        <v xml:space="preserve"> 6</v>
+      </c>
+      <c r="AR9" t="str">
+        <v xml:space="preserve"> 7</v>
+      </c>
+      <c r="AS9" t="str">
+        <v xml:space="preserve"> 8</v>
+      </c>
+      <c r="AT9" t="str">
+        <v xml:space="preserve"> 9</v>
+      </c>
+      <c r="AU9" t="str">
+        <v xml:space="preserve"> 10</v>
+      </c>
+      <c r="AV9" t="str">
+        <v xml:space="preserve">0(gdb) </v>
+      </c>
+      <c r="AW9" t="str">
+        <v xml:space="preserve">{{{0, 0}, {0, 0}, {0, 0}}, {{0, 0}, {0, 0}, {0, 0}}, {{0, 0}, {0, 0}, {      0, 0}}, {{0, 0}, {0, 0}, {0, 0}}}(gdb) </v>
+      </c>
+      <c r="AX9" t="str">
+        <v>0</v>
+      </c>
+      <c r="AY9" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AZ9" t="str">
+        <v>0</v>
+      </c>
+      <c r="BA9" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BB9" t="str">
+        <v>0</v>
+      </c>
+      <c r="BC9" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BD9" t="str">
+        <v>0</v>
+      </c>
+      <c r="BE9" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BF9" t="str">
+        <v>0</v>
+      </c>
+      <c r="BG9" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BH9" t="str">
+        <v>0</v>
+      </c>
+      <c r="BI9" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BJ9" t="str">
+        <v>0</v>
+      </c>
+      <c r="BK9" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BL9" t="str">
+        <v>0</v>
+      </c>
+      <c r="BM9" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BN9" t="str">
+        <v xml:space="preserve">      0</v>
+      </c>
+      <c r="BO9" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BP9" t="str">
+        <v>0</v>
+      </c>
+      <c r="BQ9" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BR9" t="str">
+        <v>0</v>
+      </c>
+      <c r="BS9" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BT9" t="str">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BV9" t="str">
+        <v xml:space="preserve">0(gdb) </v>
+      </c>
+      <c r="BW9" t="str">
+        <v xml:space="preserve">7(gdb) </v>
+      </c>
+      <c r="BX9" t="str">
+        <v>{0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10}</v>
+      </c>
+      <c r="BY9" t="str">
+        <v>0</v>
+      </c>
+      <c r="BZ9" t="str">
+        <v xml:space="preserve"> 1</v>
+      </c>
+      <c r="CA9" t="str">
+        <v xml:space="preserve"> 2</v>
+      </c>
+      <c r="CB9" t="str">
+        <v xml:space="preserve"> 3</v>
+      </c>
+      <c r="CC9" t="str">
+        <v xml:space="preserve"> 4</v>
+      </c>
+      <c r="CD9" t="str">
+        <v xml:space="preserve"> 5</v>
+      </c>
+      <c r="CE9" t="str">
+        <v xml:space="preserve"> 6</v>
+      </c>
+      <c r="CF9" t="str">
+        <v xml:space="preserve"> 7</v>
+      </c>
+      <c r="CG9" t="str">
+        <v xml:space="preserve"> 8</v>
+      </c>
+      <c r="CH9" t="str">
+        <v xml:space="preserve"> 9</v>
+      </c>
+      <c r="CI9" t="str">
+        <v xml:space="preserve"> 10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="str">
         <v>main</v>
       </c>
       <c r="C10" t="str">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" t="str">
         <v>{{{0, 0}, {0, 0}, {0, 0}}, {{0, 0}, {0, 0}, {0, 0}}, {{0, 0}, {0, 0}, {      0, 0}}, {{0, 0}, {0, 0}, {0, 0}}}</v>
       </c>
       <c r="E10" t="str">
+        <v>0</v>
+      </c>
+      <c r="F10" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="G10" t="str">
+        <v>0</v>
+      </c>
+      <c r="H10" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="I10" t="str">
+        <v>0</v>
+      </c>
+      <c r="J10" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="K10" t="str">
+        <v>0</v>
+      </c>
+      <c r="L10" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="M10" t="str">
+        <v>0</v>
+      </c>
+      <c r="N10" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="O10" t="str">
+        <v>0</v>
+      </c>
+      <c r="P10" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="Q10" t="str">
+        <v>0</v>
+      </c>
+      <c r="R10" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="S10" t="str">
+        <v>0</v>
+      </c>
+      <c r="T10" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="U10" t="str">
+        <v xml:space="preserve">      0</v>
+      </c>
+      <c r="V10" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="W10" t="str">
+        <v>0</v>
+      </c>
+      <c r="X10" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="Y10" t="str">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AA10" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AC10" t="str">
         <v>"123456"</v>
       </c>
-      <c r="F10" t="str">
+      <c r="AD10" t="str">
         <v>"{=}"</v>
       </c>
-      <c r="G10" t="str">
+      <c r="AE10" t="str">
+        <v>34 '"'</v>
+      </c>
+      <c r="AF10" t="str">
+        <v>"\""</v>
+      </c>
+      <c r="AG10" t="str">
         <v>{"ds", "aa"}</v>
       </c>
-      <c r="H10" t="str">
+      <c r="AH10" t="str">
+        <v>"ds"</v>
+      </c>
+      <c r="AI10" t="str">
+        <v xml:space="preserve"> "aa"</v>
+      </c>
+      <c r="AJ10" t="str">
         <v>{0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10}</v>
       </c>
-      <c r="I10" t="str">
-        <v>27</v>
+      <c r="AK10" t="str">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="str">
+        <v xml:space="preserve"> 1</v>
+      </c>
+      <c r="AM10" t="str">
+        <v xml:space="preserve"> 2</v>
+      </c>
+      <c r="AN10" t="str">
+        <v xml:space="preserve"> 3</v>
+      </c>
+      <c r="AO10" t="str">
+        <v xml:space="preserve"> 4</v>
+      </c>
+      <c r="AP10" t="str">
+        <v xml:space="preserve"> 5</v>
+      </c>
+      <c r="AQ10" t="str">
+        <v xml:space="preserve"> 6</v>
+      </c>
+      <c r="AR10" t="str">
+        <v xml:space="preserve"> 7</v>
+      </c>
+      <c r="AS10" t="str">
+        <v xml:space="preserve"> 8</v>
+      </c>
+      <c r="AT10" t="str">
+        <v xml:space="preserve"> 9</v>
+      </c>
+      <c r="AU10" t="str">
+        <v xml:space="preserve"> 10</v>
+      </c>
+      <c r="AV10" t="str">
+        <v xml:space="preserve">27(gdb) </v>
+      </c>
+      <c r="AW10" t="str">
+        <v xml:space="preserve">{{{0, 0}, {0, 0}, {0, 0}}, {{0, 0}, {0, 0}, {0, 0}}, {{0, 0}, {0, 0}, {      0, 0}}, {{0, 0}, {0, 0}, {0, 0}}}(gdb) </v>
+      </c>
+      <c r="AX10" t="str">
+        <v>0</v>
+      </c>
+      <c r="AY10" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AZ10" t="str">
+        <v>0</v>
+      </c>
+      <c r="BA10" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BB10" t="str">
+        <v>0</v>
+      </c>
+      <c r="BC10" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BD10" t="str">
+        <v>0</v>
+      </c>
+      <c r="BE10" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BF10" t="str">
+        <v>0</v>
+      </c>
+      <c r="BG10" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BH10" t="str">
+        <v>0</v>
+      </c>
+      <c r="BI10" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BJ10" t="str">
+        <v>0</v>
+      </c>
+      <c r="BK10" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BL10" t="str">
+        <v>0</v>
+      </c>
+      <c r="BM10" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BN10" t="str">
+        <v xml:space="preserve">      0</v>
+      </c>
+      <c r="BO10" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BP10" t="str">
+        <v>0</v>
+      </c>
+      <c r="BQ10" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BR10" t="str">
+        <v>0</v>
+      </c>
+      <c r="BS10" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BT10" t="str">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BV10" t="str">
+        <v xml:space="preserve">0(gdb) </v>
+      </c>
+      <c r="BW10" t="str">
+        <v xml:space="preserve">7(gdb) </v>
+      </c>
+      <c r="BX10" t="str">
+        <v>{0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10}</v>
+      </c>
+      <c r="BY10" t="str">
+        <v>0</v>
+      </c>
+      <c r="BZ10" t="str">
+        <v xml:space="preserve"> 1</v>
+      </c>
+      <c r="CA10" t="str">
+        <v xml:space="preserve"> 2</v>
+      </c>
+      <c r="CB10" t="str">
+        <v xml:space="preserve"> 3</v>
+      </c>
+      <c r="CC10" t="str">
+        <v xml:space="preserve"> 4</v>
+      </c>
+      <c r="CD10" t="str">
+        <v xml:space="preserve"> 5</v>
+      </c>
+      <c r="CE10" t="str">
+        <v xml:space="preserve"> 6</v>
+      </c>
+      <c r="CF10" t="str">
+        <v xml:space="preserve"> 7</v>
+      </c>
+      <c r="CG10" t="str">
+        <v xml:space="preserve"> 8</v>
+      </c>
+      <c r="CH10" t="str">
+        <v xml:space="preserve"> 9</v>
+      </c>
+      <c r="CI10" t="str">
+        <v xml:space="preserve"> 10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="str">
         <v>main</v>
       </c>
+      <c r="C11" t="str">
+        <v>28</v>
+      </c>
       <c r="D11" t="str">
         <v>{{{0, 0}, {0, 0}, {0, 0}}, {{0, 0}, {0, 0}, {0, 0}}, {{0, 0}, {0, 0}, {      0, 0}}, {{0, 0}, {0, 0}, {0, 0}}}</v>
       </c>
       <c r="E11" t="str">
+        <v>0</v>
+      </c>
+      <c r="F11" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="G11" t="str">
+        <v>0</v>
+      </c>
+      <c r="H11" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="I11" t="str">
+        <v>0</v>
+      </c>
+      <c r="J11" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="K11" t="str">
+        <v>0</v>
+      </c>
+      <c r="L11" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="M11" t="str">
+        <v>0</v>
+      </c>
+      <c r="N11" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="O11" t="str">
+        <v>0</v>
+      </c>
+      <c r="P11" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="Q11" t="str">
+        <v>0</v>
+      </c>
+      <c r="R11" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="S11" t="str">
+        <v>0</v>
+      </c>
+      <c r="T11" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="U11" t="str">
+        <v xml:space="preserve">      0</v>
+      </c>
+      <c r="V11" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="W11" t="str">
+        <v>0</v>
+      </c>
+      <c r="X11" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="Y11" t="str">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AA11" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AC11" t="str">
         <v>"123456"</v>
       </c>
-      <c r="F11" t="str">
+      <c r="AD11" t="str">
         <v>"{=}"</v>
       </c>
-      <c r="G11" t="str">
+      <c r="AE11" t="str">
+        <v>34 '"'</v>
+      </c>
+      <c r="AF11" t="str">
+        <v>"\""</v>
+      </c>
+      <c r="AG11" t="str">
         <v>{"ds", "aa"}</v>
       </c>
-      <c r="H11" t="str">
+      <c r="AH11" t="str">
+        <v>"ds"</v>
+      </c>
+      <c r="AI11" t="str">
+        <v xml:space="preserve"> "aa"</v>
+      </c>
+      <c r="AJ11" t="str">
         <v>{0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10}</v>
       </c>
-      <c r="I11" t="str">
-        <v>27</v>
+      <c r="AK11" t="str">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="str">
+        <v xml:space="preserve"> 1</v>
+      </c>
+      <c r="AM11" t="str">
+        <v xml:space="preserve"> 2</v>
+      </c>
+      <c r="AN11" t="str">
+        <v xml:space="preserve"> 3</v>
+      </c>
+      <c r="AO11" t="str">
+        <v xml:space="preserve"> 4</v>
+      </c>
+      <c r="AP11" t="str">
+        <v xml:space="preserve"> 5</v>
+      </c>
+      <c r="AQ11" t="str">
+        <v xml:space="preserve"> 6</v>
+      </c>
+      <c r="AR11" t="str">
+        <v xml:space="preserve"> 7</v>
+      </c>
+      <c r="AS11" t="str">
+        <v xml:space="preserve"> 8</v>
+      </c>
+      <c r="AT11" t="str">
+        <v xml:space="preserve"> 9</v>
+      </c>
+      <c r="AU11" t="str">
+        <v xml:space="preserve"> 10</v>
+      </c>
+      <c r="AV11" t="str">
+        <v xml:space="preserve">27(gdb) </v>
+      </c>
+      <c r="AW11" t="str">
+        <v xml:space="preserve">{{{0, 0}, {0, 0}, {0, 0}}, {{0, 0}, {0, 0}, {0, 0}}, {{0, 0}, {0, 0}, {      0, 0}}, {{0, 0}, {0, 0}, {0, 0}}}(gdb) </v>
+      </c>
+      <c r="AX11" t="str">
+        <v>0</v>
+      </c>
+      <c r="AY11" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AZ11" t="str">
+        <v>0</v>
+      </c>
+      <c r="BA11" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BB11" t="str">
+        <v>0</v>
+      </c>
+      <c r="BC11" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BD11" t="str">
+        <v>0</v>
+      </c>
+      <c r="BE11" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BF11" t="str">
+        <v>0</v>
+      </c>
+      <c r="BG11" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BH11" t="str">
+        <v>0</v>
+      </c>
+      <c r="BI11" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BJ11" t="str">
+        <v>0</v>
+      </c>
+      <c r="BK11" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BL11" t="str">
+        <v>0</v>
+      </c>
+      <c r="BM11" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BN11" t="str">
+        <v xml:space="preserve">      0</v>
+      </c>
+      <c r="BO11" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BP11" t="str">
+        <v>0</v>
+      </c>
+      <c r="BQ11" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BR11" t="str">
+        <v>0</v>
+      </c>
+      <c r="BS11" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BT11" t="str">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BV11" t="str">
+        <v xml:space="preserve">0(gdb) </v>
+      </c>
+      <c r="BW11" t="str">
+        <v xml:space="preserve">7(gdb) </v>
+      </c>
+      <c r="BX11" t="str">
+        <v>{0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10}</v>
+      </c>
+      <c r="BY11" t="str">
+        <v>0</v>
+      </c>
+      <c r="BZ11" t="str">
+        <v xml:space="preserve"> 1</v>
+      </c>
+      <c r="CA11" t="str">
+        <v xml:space="preserve"> 2</v>
+      </c>
+      <c r="CB11" t="str">
+        <v xml:space="preserve"> 3</v>
+      </c>
+      <c r="CC11" t="str">
+        <v xml:space="preserve"> 4</v>
+      </c>
+      <c r="CD11" t="str">
+        <v xml:space="preserve"> 5</v>
+      </c>
+      <c r="CE11" t="str">
+        <v xml:space="preserve"> 6</v>
+      </c>
+      <c r="CF11" t="str">
+        <v xml:space="preserve"> 7</v>
+      </c>
+      <c r="CG11" t="str">
+        <v xml:space="preserve"> 8</v>
+      </c>
+      <c r="CH11" t="str">
+        <v xml:space="preserve"> 9</v>
+      </c>
+      <c r="CI11" t="str">
+        <v xml:space="preserve"> 10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="str">
         <v>main</v>
       </c>
+      <c r="C12" t="str">
+        <v>29</v>
+      </c>
       <c r="D12" t="str">
         <v>{{{0, 0}, {0, 0}, {0, 0}}, {{0, 0}, {0, 0}, {0, 0}}, {{0, 0}, {0, 0}, {      0, 0}}, {{0, 0}, {0, 0}, {0, 0}}}</v>
       </c>
       <c r="E12" t="str">
+        <v>0</v>
+      </c>
+      <c r="F12" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="G12" t="str">
+        <v>0</v>
+      </c>
+      <c r="H12" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="I12" t="str">
+        <v>0</v>
+      </c>
+      <c r="J12" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="K12" t="str">
+        <v>0</v>
+      </c>
+      <c r="L12" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="M12" t="str">
+        <v>0</v>
+      </c>
+      <c r="N12" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="O12" t="str">
+        <v>0</v>
+      </c>
+      <c r="P12" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="Q12" t="str">
+        <v>0</v>
+      </c>
+      <c r="R12" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="S12" t="str">
+        <v>0</v>
+      </c>
+      <c r="T12" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="U12" t="str">
+        <v xml:space="preserve">      0</v>
+      </c>
+      <c r="V12" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="W12" t="str">
+        <v>0</v>
+      </c>
+      <c r="X12" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="Y12" t="str">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AA12" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AC12" t="str">
         <v>"123456"</v>
       </c>
-      <c r="F12" t="str">
+      <c r="AD12" t="str">
         <v>"{=}"</v>
       </c>
-      <c r="G12" t="str">
+      <c r="AE12" t="str">
+        <v>34 '"'</v>
+      </c>
+      <c r="AF12" t="str">
+        <v>"\""</v>
+      </c>
+      <c r="AG12" t="str">
         <v>{"ds", "aa"}</v>
       </c>
-      <c r="H12" t="str">
+      <c r="AH12" t="str">
+        <v>"ds"</v>
+      </c>
+      <c r="AI12" t="str">
+        <v xml:space="preserve"> "aa"</v>
+      </c>
+      <c r="AJ12" t="str">
         <v>{0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10}</v>
       </c>
-      <c r="I12" t="str">
-        <v>27</v>
+      <c r="AK12" t="str">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="str">
+        <v xml:space="preserve"> 1</v>
+      </c>
+      <c r="AM12" t="str">
+        <v xml:space="preserve"> 2</v>
+      </c>
+      <c r="AN12" t="str">
+        <v xml:space="preserve"> 3</v>
+      </c>
+      <c r="AO12" t="str">
+        <v xml:space="preserve"> 4</v>
+      </c>
+      <c r="AP12" t="str">
+        <v xml:space="preserve"> 5</v>
+      </c>
+      <c r="AQ12" t="str">
+        <v xml:space="preserve"> 6</v>
+      </c>
+      <c r="AR12" t="str">
+        <v xml:space="preserve"> 7</v>
+      </c>
+      <c r="AS12" t="str">
+        <v xml:space="preserve"> 8</v>
+      </c>
+      <c r="AT12" t="str">
+        <v xml:space="preserve"> 9</v>
+      </c>
+      <c r="AU12" t="str">
+        <v xml:space="preserve"> 10</v>
+      </c>
+      <c r="AV12" t="str">
+        <v xml:space="preserve">27(gdb) </v>
+      </c>
+      <c r="AW12" t="str">
+        <v xml:space="preserve">{{{0, 0}, {0, 0}, {0, 0}}, {{0, 0}, {0, 0}, {0, 0}}, {{0, 0}, {0, 0}, {      0, 0}}, {{0, 0}, {0, 0}, {0, 0}}}(gdb) </v>
+      </c>
+      <c r="AX12" t="str">
+        <v>0</v>
+      </c>
+      <c r="AY12" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AZ12" t="str">
+        <v>0</v>
+      </c>
+      <c r="BA12" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BB12" t="str">
+        <v>0</v>
+      </c>
+      <c r="BC12" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BD12" t="str">
+        <v>0</v>
+      </c>
+      <c r="BE12" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BF12" t="str">
+        <v>0</v>
+      </c>
+      <c r="BG12" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BH12" t="str">
+        <v>0</v>
+      </c>
+      <c r="BI12" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BJ12" t="str">
+        <v>0</v>
+      </c>
+      <c r="BK12" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BL12" t="str">
+        <v>0</v>
+      </c>
+      <c r="BM12" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BN12" t="str">
+        <v xml:space="preserve">      0</v>
+      </c>
+      <c r="BO12" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BP12" t="str">
+        <v>0</v>
+      </c>
+      <c r="BQ12" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BR12" t="str">
+        <v>0</v>
+      </c>
+      <c r="BS12" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BT12" t="str">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BV12" t="str">
+        <v xml:space="preserve">0(gdb) </v>
+      </c>
+      <c r="BW12" t="str">
+        <v xml:space="preserve">7(gdb) </v>
+      </c>
+      <c r="BX12" t="str">
+        <v>{0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10}</v>
+      </c>
+      <c r="BY12" t="str">
+        <v>0</v>
+      </c>
+      <c r="BZ12" t="str">
+        <v xml:space="preserve"> 1</v>
+      </c>
+      <c r="CA12" t="str">
+        <v xml:space="preserve"> 2</v>
+      </c>
+      <c r="CB12" t="str">
+        <v xml:space="preserve"> 3</v>
+      </c>
+      <c r="CC12" t="str">
+        <v xml:space="preserve"> 4</v>
+      </c>
+      <c r="CD12" t="str">
+        <v xml:space="preserve"> 5</v>
+      </c>
+      <c r="CE12" t="str">
+        <v xml:space="preserve"> 6</v>
+      </c>
+      <c r="CF12" t="str">
+        <v xml:space="preserve"> 7</v>
+      </c>
+      <c r="CG12" t="str">
+        <v xml:space="preserve"> 8</v>
+      </c>
+      <c r="CH12" t="str">
+        <v xml:space="preserve"> 9</v>
+      </c>
+      <c r="CI12" t="str">
+        <v xml:space="preserve"> 10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>21</v>
+      </c>
+      <c r="B13" t="str">
+        <v>main</v>
+      </c>
+      <c r="D13" t="str">
+        <v>{{{0, 0}, {0, 0}, {0, 0}}, {{0, 0}, {0, 0}, {0, 0}}, {{0, 0}, {0, 0}, {      0, 0}}, {{0, 0}, {0, 0}, {0, 0}}}</v>
+      </c>
+      <c r="E13" t="str">
+        <v>0</v>
+      </c>
+      <c r="F13" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="G13" t="str">
+        <v>0</v>
+      </c>
+      <c r="H13" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="I13" t="str">
+        <v>0</v>
+      </c>
+      <c r="J13" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="K13" t="str">
+        <v>0</v>
+      </c>
+      <c r="L13" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="M13" t="str">
+        <v>0</v>
+      </c>
+      <c r="N13" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="O13" t="str">
+        <v>0</v>
+      </c>
+      <c r="P13" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="Q13" t="str">
+        <v>0</v>
+      </c>
+      <c r="R13" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="S13" t="str">
+        <v>0</v>
+      </c>
+      <c r="T13" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="U13" t="str">
+        <v xml:space="preserve">      0</v>
+      </c>
+      <c r="V13" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="W13" t="str">
+        <v>0</v>
+      </c>
+      <c r="X13" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="Y13" t="str">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AA13" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AC13" t="str">
+        <v>"123456"</v>
+      </c>
+      <c r="AD13" t="str">
+        <v>"{=}"</v>
+      </c>
+      <c r="AE13" t="str">
+        <v>34 '"'</v>
+      </c>
+      <c r="AF13" t="str">
+        <v>"\""</v>
+      </c>
+      <c r="AG13" t="str">
+        <v>{"ds", "aa"}</v>
+      </c>
+      <c r="AH13" t="str">
+        <v>"ds"</v>
+      </c>
+      <c r="AI13" t="str">
+        <v xml:space="preserve"> "aa"</v>
+      </c>
+      <c r="AJ13" t="str">
+        <v>{0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10}</v>
+      </c>
+      <c r="AK13" t="str">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="str">
+        <v xml:space="preserve"> 1</v>
+      </c>
+      <c r="AM13" t="str">
+        <v xml:space="preserve"> 2</v>
+      </c>
+      <c r="AN13" t="str">
+        <v xml:space="preserve"> 3</v>
+      </c>
+      <c r="AO13" t="str">
+        <v xml:space="preserve"> 4</v>
+      </c>
+      <c r="AP13" t="str">
+        <v xml:space="preserve"> 5</v>
+      </c>
+      <c r="AQ13" t="str">
+        <v xml:space="preserve"> 6</v>
+      </c>
+      <c r="AR13" t="str">
+        <v xml:space="preserve"> 7</v>
+      </c>
+      <c r="AS13" t="str">
+        <v xml:space="preserve"> 8</v>
+      </c>
+      <c r="AT13" t="str">
+        <v xml:space="preserve"> 9</v>
+      </c>
+      <c r="AU13" t="str">
+        <v xml:space="preserve"> 10</v>
+      </c>
+      <c r="AV13" t="str">
+        <v xml:space="preserve">27(gdb) </v>
+      </c>
+      <c r="AW13" t="str">
+        <v xml:space="preserve">{{{0, 0}, {0, 0}, {0, 0}}, {{0, 0}, {0, 0}, {0, 0}}, {{0, 0}, {0, 0}, {      0, 0}}, {{0, 0}, {0, 0}, {0, 0}}}(gdb) </v>
+      </c>
+      <c r="AX13" t="str">
+        <v>0</v>
+      </c>
+      <c r="AY13" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AZ13" t="str">
+        <v>0</v>
+      </c>
+      <c r="BA13" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BB13" t="str">
+        <v>0</v>
+      </c>
+      <c r="BC13" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BD13" t="str">
+        <v>0</v>
+      </c>
+      <c r="BE13" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BF13" t="str">
+        <v>0</v>
+      </c>
+      <c r="BG13" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BH13" t="str">
+        <v>0</v>
+      </c>
+      <c r="BI13" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BJ13" t="str">
+        <v>0</v>
+      </c>
+      <c r="BK13" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BL13" t="str">
+        <v>0</v>
+      </c>
+      <c r="BM13" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BN13" t="str">
+        <v xml:space="preserve">      0</v>
+      </c>
+      <c r="BO13" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BP13" t="str">
+        <v>0</v>
+      </c>
+      <c r="BQ13" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BR13" t="str">
+        <v>0</v>
+      </c>
+      <c r="BS13" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BT13" t="str">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BV13" t="str">
+        <v xml:space="preserve">0(gdb) </v>
+      </c>
+      <c r="BW13" t="str">
+        <v xml:space="preserve">7(gdb) </v>
+      </c>
+      <c r="BX13" t="str">
+        <v>{0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10}</v>
+      </c>
+      <c r="BY13" t="str">
+        <v>0</v>
+      </c>
+      <c r="BZ13" t="str">
+        <v xml:space="preserve"> 1</v>
+      </c>
+      <c r="CA13" t="str">
+        <v xml:space="preserve"> 2</v>
+      </c>
+      <c r="CB13" t="str">
+        <v xml:space="preserve"> 3</v>
+      </c>
+      <c r="CC13" t="str">
+        <v xml:space="preserve"> 4</v>
+      </c>
+      <c r="CD13" t="str">
+        <v xml:space="preserve"> 5</v>
+      </c>
+      <c r="CE13" t="str">
+        <v xml:space="preserve"> 6</v>
+      </c>
+      <c r="CF13" t="str">
+        <v xml:space="preserve"> 7</v>
+      </c>
+      <c r="CG13" t="str">
+        <v xml:space="preserve"> 8</v>
+      </c>
+      <c r="CH13" t="str">
+        <v xml:space="preserve"> 9</v>
+      </c>
+      <c r="CI13" t="str">
+        <v xml:space="preserve"> 10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>22</v>
+      </c>
+      <c r="B14" t="str">
+        <v>main</v>
+      </c>
+      <c r="D14" t="str">
+        <v>{{{0, 0}, {0, 0}, {0, 0}}, {{0, 0}, {0, 0}, {0, 0}}, {{0, 0}, {0, 0}, {      0, 0}}, {{0, 0}, {0, 0}, {0, 0}}}</v>
+      </c>
+      <c r="E14" t="str">
+        <v>0</v>
+      </c>
+      <c r="F14" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="G14" t="str">
+        <v>0</v>
+      </c>
+      <c r="H14" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="I14" t="str">
+        <v>0</v>
+      </c>
+      <c r="J14" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="K14" t="str">
+        <v>0</v>
+      </c>
+      <c r="L14" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="M14" t="str">
+        <v>0</v>
+      </c>
+      <c r="N14" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="O14" t="str">
+        <v>0</v>
+      </c>
+      <c r="P14" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="Q14" t="str">
+        <v>0</v>
+      </c>
+      <c r="R14" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="S14" t="str">
+        <v>0</v>
+      </c>
+      <c r="T14" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="U14" t="str">
+        <v xml:space="preserve">      0</v>
+      </c>
+      <c r="V14" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="W14" t="str">
+        <v>0</v>
+      </c>
+      <c r="X14" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="Y14" t="str">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AA14" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AC14" t="str">
+        <v>"123456"</v>
+      </c>
+      <c r="AD14" t="str">
+        <v>"{=}"</v>
+      </c>
+      <c r="AE14" t="str">
+        <v>34 '"'</v>
+      </c>
+      <c r="AF14" t="str">
+        <v>"\""</v>
+      </c>
+      <c r="AG14" t="str">
+        <v>{"ds", "aa"}</v>
+      </c>
+      <c r="AH14" t="str">
+        <v>"ds"</v>
+      </c>
+      <c r="AI14" t="str">
+        <v xml:space="preserve"> "aa"</v>
+      </c>
+      <c r="AJ14" t="str">
+        <v>{0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10}</v>
+      </c>
+      <c r="AK14" t="str">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="str">
+        <v xml:space="preserve"> 1</v>
+      </c>
+      <c r="AM14" t="str">
+        <v xml:space="preserve"> 2</v>
+      </c>
+      <c r="AN14" t="str">
+        <v xml:space="preserve"> 3</v>
+      </c>
+      <c r="AO14" t="str">
+        <v xml:space="preserve"> 4</v>
+      </c>
+      <c r="AP14" t="str">
+        <v xml:space="preserve"> 5</v>
+      </c>
+      <c r="AQ14" t="str">
+        <v xml:space="preserve"> 6</v>
+      </c>
+      <c r="AR14" t="str">
+        <v xml:space="preserve"> 7</v>
+      </c>
+      <c r="AS14" t="str">
+        <v xml:space="preserve"> 8</v>
+      </c>
+      <c r="AT14" t="str">
+        <v xml:space="preserve"> 9</v>
+      </c>
+      <c r="AU14" t="str">
+        <v xml:space="preserve"> 10</v>
+      </c>
+      <c r="AV14" t="str">
+        <v xml:space="preserve">27(gdb) </v>
+      </c>
+      <c r="AW14" t="str">
+        <v xml:space="preserve">{{{0, 0}, {0, 0}, {0, 0}}, {{0, 0}, {0, 0}, {0, 0}}, {{0, 0}, {0, 0}, {      0, 0}}, {{0, 0}, {0, 0}, {0, 0}}}(gdb) </v>
+      </c>
+      <c r="AX14" t="str">
+        <v>0</v>
+      </c>
+      <c r="AY14" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AZ14" t="str">
+        <v>0</v>
+      </c>
+      <c r="BA14" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BB14" t="str">
+        <v>0</v>
+      </c>
+      <c r="BC14" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BD14" t="str">
+        <v>0</v>
+      </c>
+      <c r="BE14" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BF14" t="str">
+        <v>0</v>
+      </c>
+      <c r="BG14" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BH14" t="str">
+        <v>0</v>
+      </c>
+      <c r="BI14" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BJ14" t="str">
+        <v>0</v>
+      </c>
+      <c r="BK14" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BL14" t="str">
+        <v>0</v>
+      </c>
+      <c r="BM14" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BN14" t="str">
+        <v xml:space="preserve">      0</v>
+      </c>
+      <c r="BO14" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BP14" t="str">
+        <v>0</v>
+      </c>
+      <c r="BQ14" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BR14" t="str">
+        <v>0</v>
+      </c>
+      <c r="BS14" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BT14" t="str">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BV14" t="str">
+        <v xml:space="preserve">0(gdb) </v>
+      </c>
+      <c r="BW14" t="str">
+        <v xml:space="preserve">7(gdb) </v>
+      </c>
+      <c r="BX14" t="str">
+        <v>{0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10}</v>
+      </c>
+      <c r="BY14" t="str">
+        <v>0</v>
+      </c>
+      <c r="BZ14" t="str">
+        <v xml:space="preserve"> 1</v>
+      </c>
+      <c r="CA14" t="str">
+        <v xml:space="preserve"> 2</v>
+      </c>
+      <c r="CB14" t="str">
+        <v xml:space="preserve"> 3</v>
+      </c>
+      <c r="CC14" t="str">
+        <v xml:space="preserve"> 4</v>
+      </c>
+      <c r="CD14" t="str">
+        <v xml:space="preserve"> 5</v>
+      </c>
+      <c r="CE14" t="str">
+        <v xml:space="preserve"> 6</v>
+      </c>
+      <c r="CF14" t="str">
+        <v xml:space="preserve"> 7</v>
+      </c>
+      <c r="CG14" t="str">
+        <v xml:space="preserve"> 8</v>
+      </c>
+      <c r="CH14" t="str">
+        <v xml:space="preserve"> 9</v>
+      </c>
+      <c r="CI14" t="str">
+        <v xml:space="preserve"> 10</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I12"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:CI14"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/table.xlsx
+++ b/table.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CI14"/>
+  <dimension ref="A1:CI15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -673,7 +673,7 @@
         <v>main</v>
       </c>
       <c r="D2" t="str">
-        <v>{{{0, 0}, {0, 0}, {-1398802736, 88}}, {{-1379198384, 32759}, {      -1379198560, 32759}, {-1379199398, 32759}}, {{-1903815504, 590}, {0,       0}, {-1379205120, 32759}}, {{0, 1}, {-1398802688, 88}, {-1379198344,       32759}}}</v>
+        <v>{{{0, 0}, {0, 0}, {1266678640, 51}}, {{-1580590512, 32759}, {      -1580590688, 32759}, {-1580591526, 32759}}, {{-888597328, 325}, {0, 0},     {-1580597248, 32759}}, {{0, 1}, {1266678688, 51}, {-1580590472, 32759}}}</v>
       </c>
       <c r="E2" t="str">
         <v>0</v>
@@ -688,43 +688,43 @@
         <v xml:space="preserve"> 0</v>
       </c>
       <c r="I2" t="str">
-        <v>-1398802736</v>
+        <v>1266678640</v>
       </c>
       <c r="J2" t="str">
-        <v xml:space="preserve"> 88</v>
+        <v xml:space="preserve"> 51</v>
       </c>
       <c r="K2" t="str">
-        <v>-1379198384</v>
+        <v>-1580590512</v>
       </c>
       <c r="L2" t="str">
         <v xml:space="preserve"> 32759</v>
       </c>
       <c r="M2" t="str">
-        <v xml:space="preserve">      -1379198560</v>
+        <v xml:space="preserve">      -1580590688</v>
       </c>
       <c r="N2" t="str">
         <v xml:space="preserve"> 32759</v>
       </c>
       <c r="O2" t="str">
-        <v>-1379199398</v>
+        <v>-1580591526</v>
       </c>
       <c r="P2" t="str">
         <v xml:space="preserve"> 32759</v>
       </c>
       <c r="Q2" t="str">
-        <v>-1903815504</v>
+        <v>-888597328</v>
       </c>
       <c r="R2" t="str">
-        <v xml:space="preserve"> 590</v>
+        <v xml:space="preserve"> 325</v>
       </c>
       <c r="S2" t="str">
         <v>0</v>
       </c>
       <c r="T2" t="str">
-        <v xml:space="preserve">       0</v>
+        <v xml:space="preserve"> 0</v>
       </c>
       <c r="U2" t="str">
-        <v>-1379205120</v>
+        <v>-1580597248</v>
       </c>
       <c r="V2" t="str">
         <v xml:space="preserve"> 32759</v>
@@ -736,16 +736,16 @@
         <v xml:space="preserve"> 1</v>
       </c>
       <c r="Y2" t="str">
-        <v>-1398802688</v>
+        <v>1266678688</v>
       </c>
       <c r="Z2" t="str">
-        <v xml:space="preserve"> 88</v>
+        <v xml:space="preserve"> 51</v>
       </c>
       <c r="AA2" t="str">
-        <v>-1379198344</v>
+        <v>-1580590472</v>
       </c>
       <c r="AB2" t="str">
-        <v xml:space="preserve">       32759</v>
+        <v xml:space="preserve"> 32759</v>
       </c>
       <c r="AC2" t="str">
         <v>"\000\000\000\000\000\000"</v>
@@ -769,10 +769,10 @@
         <v xml:space="preserve"> "\000"</v>
       </c>
       <c r="AJ2" t="str">
-        <v>{-1379198560, 32759, 16, 0, 0, 0, 0, 0, 0, 0, -1379199315}</v>
+        <v>{-1580590688, 32759, 16, 0, 0, 0, 0, 0, 0, 0, -1580591443}</v>
       </c>
       <c r="AK2" t="str">
-        <v>-1379198560</v>
+        <v>-1580590688</v>
       </c>
       <c r="AL2" t="str">
         <v xml:space="preserve"> 32759</v>
@@ -802,7 +802,7 @@
         <v xml:space="preserve"> 0</v>
       </c>
       <c r="AU2" t="str">
-        <v xml:space="preserve"> -1379199315</v>
+        <v xml:space="preserve"> -1580591443</v>
       </c>
       <c r="AV2" t="str">
         <v xml:space="preserve">0(gdb) </v>
@@ -1029,10 +1029,10 @@
         <v xml:space="preserve"> "\000"</v>
       </c>
       <c r="AJ3" t="str">
-        <v>{-1379198560, 32759, 16, 0, 0, 0, 0, 0, 0, 0, -1379199315}</v>
+        <v>{-1580590688, 32759, 16, 0, 0, 0, 0, 0, 0, 0, -1580591443}</v>
       </c>
       <c r="AK3" t="str">
-        <v>-1379198560</v>
+        <v>-1580590688</v>
       </c>
       <c r="AL3" t="str">
         <v xml:space="preserve"> 32759</v>
@@ -1062,7 +1062,7 @@
         <v xml:space="preserve"> 0</v>
       </c>
       <c r="AU3" t="str">
-        <v xml:space="preserve"> -1379199315</v>
+        <v xml:space="preserve"> -1580591443</v>
       </c>
       <c r="AV3" t="str">
         <v xml:space="preserve">0(gdb) </v>
@@ -1289,10 +1289,10 @@
         <v xml:space="preserve"> "\000"</v>
       </c>
       <c r="AJ4" t="str">
-        <v>{-1379198560, 32759, 16, 0, 0, 0, 0, 0, 0, 0, -1379199315}</v>
+        <v>{-1580590688, 32759, 16, 0, 0, 0, 0, 0, 0, 0, -1580591443}</v>
       </c>
       <c r="AK4" t="str">
-        <v>-1379198560</v>
+        <v>-1580590688</v>
       </c>
       <c r="AL4" t="str">
         <v xml:space="preserve"> 32759</v>
@@ -1322,7 +1322,7 @@
         <v xml:space="preserve"> 0</v>
       </c>
       <c r="AU4" t="str">
-        <v xml:space="preserve"> -1379199315</v>
+        <v xml:space="preserve"> -1580591443</v>
       </c>
       <c r="AV4" t="str">
         <v xml:space="preserve">0(gdb) </v>
@@ -1549,10 +1549,10 @@
         <v xml:space="preserve"> "\000"</v>
       </c>
       <c r="AJ5" t="str">
-        <v>{-1379198560, 32759, 16, 0, 0, 0, 0, 0, 0, 0, -1379199315}</v>
+        <v>{-1580590688, 32759, 16, 0, 0, 0, 0, 0, 0, 0, -1580591443}</v>
       </c>
       <c r="AK5" t="str">
-        <v>-1379198560</v>
+        <v>-1580590688</v>
       </c>
       <c r="AL5" t="str">
         <v xml:space="preserve"> 32759</v>
@@ -1582,7 +1582,7 @@
         <v xml:space="preserve"> 0</v>
       </c>
       <c r="AU5" t="str">
-        <v xml:space="preserve"> -1379199315</v>
+        <v xml:space="preserve"> -1580591443</v>
       </c>
       <c r="AV5" t="str">
         <v xml:space="preserve">0(gdb) </v>
@@ -1809,10 +1809,10 @@
         <v xml:space="preserve"> "\000"</v>
       </c>
       <c r="AJ6" t="str">
-        <v>{-1379198560, 32759, 16, 0, 0, 0, 0, 0, 0, 0, -1379199315}</v>
+        <v>{-1580590688, 32759, 16, 0, 0, 0, 0, 0, 0, 0, -1580591443}</v>
       </c>
       <c r="AK6" t="str">
-        <v>-1379198560</v>
+        <v>-1580590688</v>
       </c>
       <c r="AL6" t="str">
         <v xml:space="preserve"> 32759</v>
@@ -1842,7 +1842,7 @@
         <v xml:space="preserve"> 0</v>
       </c>
       <c r="AU6" t="str">
-        <v xml:space="preserve"> -1379199315</v>
+        <v xml:space="preserve"> -1580591443</v>
       </c>
       <c r="AV6" t="str">
         <v xml:space="preserve">0(gdb) </v>
@@ -2069,10 +2069,10 @@
         <v xml:space="preserve"> "\000"</v>
       </c>
       <c r="AJ7" t="str">
-        <v>{-1379198560, 32759, 16, 0, 0, 0, 0, 0, 0, 0, -1379199315}</v>
+        <v>{-1580590688, 32759, 16, 0, 0, 0, 0, 0, 0, 0, -1580591443}</v>
       </c>
       <c r="AK7" t="str">
-        <v>-1379198560</v>
+        <v>-1580590688</v>
       </c>
       <c r="AL7" t="str">
         <v xml:space="preserve"> 32759</v>
@@ -2102,7 +2102,7 @@
         <v xml:space="preserve"> 0</v>
       </c>
       <c r="AU7" t="str">
-        <v xml:space="preserve"> -1379199315</v>
+        <v xml:space="preserve"> -1580591443</v>
       </c>
       <c r="AV7" t="str">
         <v xml:space="preserve">0(gdb) </v>
@@ -2329,10 +2329,10 @@
         <v xml:space="preserve"> "aa"</v>
       </c>
       <c r="AJ8" t="str">
-        <v>{-1379198560, 32759, 16, 0, 0, 0, 0, 0, 0, 0, -1379199315}</v>
+        <v>{-1580590688, 32759, 16, 0, 0, 0, 0, 0, 0, 0, -1580591443}</v>
       </c>
       <c r="AK8" t="str">
-        <v>-1379198560</v>
+        <v>-1580590688</v>
       </c>
       <c r="AL8" t="str">
         <v xml:space="preserve"> 32759</v>
@@ -2362,7 +2362,7 @@
         <v xml:space="preserve"> 0</v>
       </c>
       <c r="AU8" t="str">
-        <v xml:space="preserve"> -1379199315</v>
+        <v xml:space="preserve"> -1580591443</v>
       </c>
       <c r="AV8" t="str">
         <v xml:space="preserve">0(gdb) </v>
@@ -2752,9 +2752,6 @@
       <c r="B10" t="str">
         <v>main</v>
       </c>
-      <c r="C10" t="str">
-        <v>27</v>
-      </c>
       <c r="D10" t="str">
         <v>{{{0, 0}, {0, 0}, {0, 0}}, {{0, 0}, {0, 0}, {0, 0}}, {{0, 0}, {0, 0}, {      0, 0}}, {{0, 0}, {0, 0}, {0, 0}}}</v>
       </c>
@@ -3016,7 +3013,7 @@
         <v>main</v>
       </c>
       <c r="C11" t="str">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" t="str">
         <v>{{{0, 0}, {0, 0}, {0, 0}}, {{0, 0}, {0, 0}, {0, 0}}, {{0, 0}, {0, 0}, {      0, 0}}, {{0, 0}, {0, 0}, {0, 0}}}</v>
@@ -3106,10 +3103,10 @@
         <v>"\""</v>
       </c>
       <c r="AG11" t="str">
-        <v>{"ds", "aa"}</v>
+        <v>{"\000s", "aa"}</v>
       </c>
       <c r="AH11" t="str">
-        <v>"ds"</v>
+        <v>"\000s"</v>
       </c>
       <c r="AI11" t="str">
         <v xml:space="preserve"> "aa"</v>
@@ -3279,7 +3276,7 @@
         <v>main</v>
       </c>
       <c r="C12" t="str">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" t="str">
         <v>{{{0, 0}, {0, 0}, {0, 0}}, {{0, 0}, {0, 0}, {0, 0}}, {{0, 0}, {0, 0}, {      0, 0}}, {{0, 0}, {0, 0}, {0, 0}}}</v>
@@ -3369,10 +3366,10 @@
         <v>"\""</v>
       </c>
       <c r="AG12" t="str">
-        <v>{"ds", "aa"}</v>
+        <v>{"\000s", "aa"}</v>
       </c>
       <c r="AH12" t="str">
-        <v>"ds"</v>
+        <v>"\000s"</v>
       </c>
       <c r="AI12" t="str">
         <v xml:space="preserve"> "aa"</v>
@@ -3541,6 +3538,9 @@
       <c r="B13" t="str">
         <v>main</v>
       </c>
+      <c r="C13" t="str">
+        <v>29</v>
+      </c>
       <c r="D13" t="str">
         <v>{{{0, 0}, {0, 0}, {0, 0}}, {{0, 0}, {0, 0}, {0, 0}}, {{0, 0}, {0, 0}, {      0, 0}}, {{0, 0}, {0, 0}, {0, 0}}}</v>
       </c>
@@ -3629,10 +3629,10 @@
         <v>"\""</v>
       </c>
       <c r="AG13" t="str">
-        <v>{"ds", "aa"}</v>
+        <v>{"\000s", "aa"}</v>
       </c>
       <c r="AH13" t="str">
-        <v>"ds"</v>
+        <v>"\000s"</v>
       </c>
       <c r="AI13" t="str">
         <v xml:space="preserve"> "aa"</v>
@@ -3889,10 +3889,10 @@
         <v>"\""</v>
       </c>
       <c r="AG14" t="str">
-        <v>{"ds", "aa"}</v>
+        <v>{"\000s", "aa"}</v>
       </c>
       <c r="AH14" t="str">
-        <v>"ds"</v>
+        <v>"\000s"</v>
       </c>
       <c r="AI14" t="str">
         <v xml:space="preserve"> "aa"</v>
@@ -4051,12 +4051,272 @@
         <v xml:space="preserve"> 9</v>
       </c>
       <c r="CI14" t="str">
+        <v xml:space="preserve"> 10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>23</v>
+      </c>
+      <c r="B15" t="str">
+        <v>main</v>
+      </c>
+      <c r="D15" t="str">
+        <v>{{{0, 0}, {0, 0}, {0, 0}}, {{0, 0}, {0, 0}, {0, 0}}, {{0, 0}, {0, 0}, {      0, 0}}, {{0, 0}, {0, 0}, {0, 0}}}</v>
+      </c>
+      <c r="E15" t="str">
+        <v>0</v>
+      </c>
+      <c r="F15" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="G15" t="str">
+        <v>0</v>
+      </c>
+      <c r="H15" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="I15" t="str">
+        <v>0</v>
+      </c>
+      <c r="J15" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="K15" t="str">
+        <v>0</v>
+      </c>
+      <c r="L15" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="M15" t="str">
+        <v>0</v>
+      </c>
+      <c r="N15" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="O15" t="str">
+        <v>0</v>
+      </c>
+      <c r="P15" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="Q15" t="str">
+        <v>0</v>
+      </c>
+      <c r="R15" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="S15" t="str">
+        <v>0</v>
+      </c>
+      <c r="T15" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="U15" t="str">
+        <v xml:space="preserve">      0</v>
+      </c>
+      <c r="V15" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="W15" t="str">
+        <v>0</v>
+      </c>
+      <c r="X15" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="Y15" t="str">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AA15" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AC15" t="str">
+        <v>"123456"</v>
+      </c>
+      <c r="AD15" t="str">
+        <v>"{=}"</v>
+      </c>
+      <c r="AE15" t="str">
+        <v>34 '"'</v>
+      </c>
+      <c r="AF15" t="str">
+        <v>"\""</v>
+      </c>
+      <c r="AG15" t="str">
+        <v>{"\000s", "aa"}</v>
+      </c>
+      <c r="AH15" t="str">
+        <v>"\000s"</v>
+      </c>
+      <c r="AI15" t="str">
+        <v xml:space="preserve"> "aa"</v>
+      </c>
+      <c r="AJ15" t="str">
+        <v>{0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10}</v>
+      </c>
+      <c r="AK15" t="str">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="str">
+        <v xml:space="preserve"> 1</v>
+      </c>
+      <c r="AM15" t="str">
+        <v xml:space="preserve"> 2</v>
+      </c>
+      <c r="AN15" t="str">
+        <v xml:space="preserve"> 3</v>
+      </c>
+      <c r="AO15" t="str">
+        <v xml:space="preserve"> 4</v>
+      </c>
+      <c r="AP15" t="str">
+        <v xml:space="preserve"> 5</v>
+      </c>
+      <c r="AQ15" t="str">
+        <v xml:space="preserve"> 6</v>
+      </c>
+      <c r="AR15" t="str">
+        <v xml:space="preserve"> 7</v>
+      </c>
+      <c r="AS15" t="str">
+        <v xml:space="preserve"> 8</v>
+      </c>
+      <c r="AT15" t="str">
+        <v xml:space="preserve"> 9</v>
+      </c>
+      <c r="AU15" t="str">
+        <v xml:space="preserve"> 10</v>
+      </c>
+      <c r="AV15" t="str">
+        <v xml:space="preserve">27(gdb) </v>
+      </c>
+      <c r="AW15" t="str">
+        <v xml:space="preserve">{{{0, 0}, {0, 0}, {0, 0}}, {{0, 0}, {0, 0}, {0, 0}}, {{0, 0}, {0, 0}, {      0, 0}}, {{0, 0}, {0, 0}, {0, 0}}}(gdb) </v>
+      </c>
+      <c r="AX15" t="str">
+        <v>0</v>
+      </c>
+      <c r="AY15" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="AZ15" t="str">
+        <v>0</v>
+      </c>
+      <c r="BA15" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BB15" t="str">
+        <v>0</v>
+      </c>
+      <c r="BC15" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BD15" t="str">
+        <v>0</v>
+      </c>
+      <c r="BE15" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BF15" t="str">
+        <v>0</v>
+      </c>
+      <c r="BG15" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BH15" t="str">
+        <v>0</v>
+      </c>
+      <c r="BI15" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BJ15" t="str">
+        <v>0</v>
+      </c>
+      <c r="BK15" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BL15" t="str">
+        <v>0</v>
+      </c>
+      <c r="BM15" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BN15" t="str">
+        <v xml:space="preserve">      0</v>
+      </c>
+      <c r="BO15" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BP15" t="str">
+        <v>0</v>
+      </c>
+      <c r="BQ15" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BR15" t="str">
+        <v>0</v>
+      </c>
+      <c r="BS15" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BT15" t="str">
+        <v>0</v>
+      </c>
+      <c r="BU15" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="BV15" t="str">
+        <v xml:space="preserve">0(gdb) </v>
+      </c>
+      <c r="BW15" t="str">
+        <v xml:space="preserve">7(gdb) </v>
+      </c>
+      <c r="BX15" t="str">
+        <v>{0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10}</v>
+      </c>
+      <c r="BY15" t="str">
+        <v>0</v>
+      </c>
+      <c r="BZ15" t="str">
+        <v xml:space="preserve"> 1</v>
+      </c>
+      <c r="CA15" t="str">
+        <v xml:space="preserve"> 2</v>
+      </c>
+      <c r="CB15" t="str">
+        <v xml:space="preserve"> 3</v>
+      </c>
+      <c r="CC15" t="str">
+        <v xml:space="preserve"> 4</v>
+      </c>
+      <c r="CD15" t="str">
+        <v xml:space="preserve"> 5</v>
+      </c>
+      <c r="CE15" t="str">
+        <v xml:space="preserve"> 6</v>
+      </c>
+      <c r="CF15" t="str">
+        <v xml:space="preserve"> 7</v>
+      </c>
+      <c r="CG15" t="str">
+        <v xml:space="preserve"> 8</v>
+      </c>
+      <c r="CH15" t="str">
+        <v xml:space="preserve"> 9</v>
+      </c>
+      <c r="CI15" t="str">
         <v xml:space="preserve"> 10</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:CI14"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:CI15"/>
   </ignoredErrors>
 </worksheet>
 </file>